--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\3-Katet\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Sojevë\INXHINIERIKE\Dior\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$88</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
   <si>
     <t>Y</t>
   </si>
@@ -72,21 +72,6 @@
     <t>Sead Prushi</t>
   </si>
   <si>
-    <t>O1-1</t>
-  </si>
-  <si>
-    <t>O1-2</t>
-  </si>
-  <si>
-    <t>O1-3</t>
-  </si>
-  <si>
-    <t>O1-4</t>
-  </si>
-  <si>
-    <t>SHKALLET</t>
-  </si>
-  <si>
     <t>Sqarim</t>
   </si>
   <si>
@@ -154,6 +139,12 @@
   </si>
   <si>
     <t>Nënkulm</t>
+  </si>
+  <si>
+    <t>PERDHESA</t>
+  </si>
+  <si>
+    <t>SHKALET</t>
   </si>
 </sst>
 </file>
@@ -201,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -623,30 +614,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -659,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -720,10 +687,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -741,16 +708,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,6 +727,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,62 +835,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1515,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:F44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,115 +1498,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1664,16 +1628,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>7</v>
@@ -1681,574 +1645,563 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
-        <v>7510843.9336000001</v>
+        <v>7517924.0990000004</v>
       </c>
       <c r="D15" s="5">
-        <v>4693754.3136</v>
+        <v>4692685.9060000004</v>
       </c>
       <c r="E15" s="16">
-        <v>580.96799999999996</v>
+        <v>616.38300000000004</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="75">
+      <c r="I15" s="40">
         <v>208.47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5">
-        <v>7510835.4665000001</v>
+        <v>7517928.4419999998</v>
       </c>
       <c r="D16" s="5">
-        <v>4693745.7829</v>
+        <v>4692673.07</v>
       </c>
       <c r="E16" s="16">
-        <v>580.96799999999996</v>
+        <v>616.38300000000004</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="76"/>
+        <v>34</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5">
-        <v>7510831.7971999999</v>
+        <v>7517929.8169999998</v>
       </c>
       <c r="D17" s="5">
-        <v>4693766.6201999998</v>
+        <v>4692673.5259999996</v>
       </c>
       <c r="E17" s="16">
-        <v>580.96799999999996</v>
+        <v>616.38300000000004</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="76"/>
+        <v>34</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5">
-        <v>7510823.2538000001</v>
+        <v>7517929.96</v>
       </c>
       <c r="D18" s="5">
-        <v>4693758.1205000002</v>
+        <v>4692673.2819999997</v>
       </c>
       <c r="E18" s="16">
-        <v>580.96799999999996</v>
+        <v>616.38300000000004</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="77"/>
+        <v>34</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5">
-        <v>7510826.4108999996</v>
+        <v>7517930.2989999996</v>
       </c>
       <c r="D19" s="5">
-        <v>4693754.9310999997</v>
+        <v>4692672.9689999996</v>
       </c>
       <c r="E19" s="16">
-        <v>580.96799999999996</v>
+        <v>616.38300000000004</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="75">
-        <v>9.24</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5">
-        <v>7510825.6070999997</v>
+        <v>7517930.7450000001</v>
       </c>
       <c r="D20" s="5">
-        <v>4693754.1304000001</v>
+        <v>4692672.7690000003</v>
       </c>
       <c r="E20" s="16">
-        <v>580.96799999999996</v>
+        <v>616.38300000000004</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="76"/>
+        <v>34</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5">
-        <v>7510831.4223999996</v>
+        <v>7517931.2220000001</v>
       </c>
       <c r="D21" s="5">
-        <v>4693748.2926000003</v>
+        <v>4692672.7319999998</v>
       </c>
       <c r="E21" s="16">
-        <v>580.96799999999996</v>
+        <v>616.38300000000004</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="E22" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7517953.7189999996</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4692687.3470000001</v>
+      </c>
+      <c r="E23" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7517955.8949999996</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4692681.023</v>
+      </c>
+      <c r="E24" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="E25" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7517951.9790000003</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="E26" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="E27" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="E28" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="E29" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="E30" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="41"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7517930.4069999997</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4692671.8150000004</v>
+      </c>
+      <c r="E31" s="16">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="77">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14">
         <v>15</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="77"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
-        <v>99</v>
-      </c>
-      <c r="C22" s="15">
-        <v>7510832.2077000001</v>
-      </c>
-      <c r="D22" s="15">
-        <v>4693749.0749000004</v>
-      </c>
-      <c r="E22" s="17">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="C32" s="15">
+        <v>7517928.9910000004</v>
+      </c>
+      <c r="D32" s="15">
+        <v>4692671.3689999999</v>
+      </c>
+      <c r="E32" s="17">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="18">
-        <f>SUM(I15:I21)</f>
-        <v>217.71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="I32" s="18">
+        <f>SUM(I15:I31)</f>
+        <v>226.95000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="23">
+        <v>7</v>
+      </c>
+      <c r="C35" s="19">
+        <v>7510827.4069999997</v>
+      </c>
+      <c r="D35" s="20">
+        <v>4693753.9248000002</v>
+      </c>
+      <c r="E35" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="H35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="24">
+        <v>224.06</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="23">
+        <v>12</v>
+      </c>
+      <c r="C36" s="19">
+        <v>7510843.9336000001</v>
+      </c>
+      <c r="D36" s="20">
+        <v>4693754.3136</v>
+      </c>
+      <c r="E36" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="23">
-        <v>7</v>
-      </c>
-      <c r="C25" s="19">
-        <v>7510827.4069999997</v>
-      </c>
-      <c r="D25" s="20">
-        <v>4693753.9248000002</v>
-      </c>
-      <c r="E25" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="24">
-        <v>224.06</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="23">
-        <v>12</v>
-      </c>
-      <c r="C26" s="19">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D26" s="20">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E26" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
-        <v>13</v>
-      </c>
-      <c r="C27" s="19">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D27" s="20">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E27" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
-        <v>19</v>
-      </c>
-      <c r="C28" s="19">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D28" s="20">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E28" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
-        <v>52</v>
-      </c>
-      <c r="C29" s="19">
-        <v>7510831.3317</v>
-      </c>
-      <c r="D29" s="20">
-        <v>4693749.9599000001</v>
-      </c>
-      <c r="E29" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
-        <v>56</v>
-      </c>
-      <c r="C30" s="19">
-        <v>7510822.3073000005</v>
-      </c>
-      <c r="D30" s="20">
-        <v>4693757.1810999997</v>
-      </c>
-      <c r="E30" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
-        <v>8</v>
-      </c>
-      <c r="C31" s="19">
-        <v>7510830.3949999996</v>
-      </c>
-      <c r="D31" s="20">
-        <v>4693749.0327000003</v>
-      </c>
-      <c r="E31" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="24">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
-        <v>100</v>
-      </c>
-      <c r="C32" s="19">
-        <v>7510826.4649999999</v>
-      </c>
-      <c r="D32" s="20">
-        <v>4693752.9923</v>
-      </c>
-      <c r="E32" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
-        <v>101</v>
-      </c>
-      <c r="C33" s="19">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="D33" s="20">
-        <v>4693767.4611</v>
-      </c>
-      <c r="E33" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="36">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
-        <v>102</v>
-      </c>
-      <c r="C34" s="27">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D34" s="28">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E34" s="15">
-        <v>584.09</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="31">
-        <f>SUM(I25:I33)</f>
-        <v>252.15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C37" s="19">
-        <v>7510823.2538000001</v>
+        <v>7510834.5436000004</v>
       </c>
       <c r="D37" s="20">
-        <v>4693758.1205000002</v>
+        <v>4693744.8530999999</v>
       </c>
       <c r="E37" s="5">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="61">
-        <v>208.47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C38" s="19">
-        <v>7510843.9336000001</v>
+        <v>7510831.7971999999</v>
       </c>
       <c r="D38" s="20">
-        <v>4693754.3136</v>
+        <v>4693766.6201999998</v>
       </c>
       <c r="E38" s="5">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="61"/>
+        <v>16</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C39" s="19">
-        <v>7510835.4665000001</v>
+        <v>7510831.3317</v>
       </c>
       <c r="D39" s="20">
-        <v>4693745.7829</v>
+        <v>4693749.9599000001</v>
       </c>
       <c r="E39" s="5">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
+        <v>16</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C40" s="19">
-        <v>7510831.7971999999</v>
+        <v>7510822.3073000005</v>
       </c>
       <c r="D40" s="20">
-        <v>4693766.6201999998</v>
+        <v>4693757.1810999997</v>
       </c>
       <c r="E40" s="5">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
+        <v>16</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
         <v>8</v>
       </c>
       <c r="C41" s="19">
-        <v>7510834.5436000004</v>
+        <v>7510830.3949999996</v>
       </c>
       <c r="D41" s="20">
-        <v>4693744.8530999999</v>
+        <v>4693749.0327000003</v>
       </c>
       <c r="E41" s="5">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="61">
-        <v>22.95</v>
+        <v>17</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="24">
+        <v>20.72</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -2256,43 +2209,43 @@
         <v>100</v>
       </c>
       <c r="C42" s="19">
-        <v>7510822.3084000004</v>
+        <v>7510826.4649999999</v>
       </c>
       <c r="D42" s="20">
-        <v>4693757.18</v>
+        <v>4693752.9923</v>
       </c>
       <c r="E42" s="5">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="23">
         <v>101</v>
       </c>
       <c r="C43" s="19">
-        <v>7510832.6459999997</v>
+        <v>7510832.6496000001</v>
       </c>
       <c r="D43" s="20">
-        <v>4693767.4647000004</v>
+        <v>4693767.4611</v>
       </c>
       <c r="E43" s="5">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="24">
-        <v>20.72</v>
+        <v>17</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="36">
+        <v>7.37</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2306,18 +2259,18 @@
         <v>4693755.1654000003</v>
       </c>
       <c r="E44" s="15">
-        <v>587.16200000000003</v>
+        <v>584.09</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="59"/>
+        <v>17</v>
+      </c>
+      <c r="G44" s="29"/>
       <c r="H44" s="30" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I44" s="31">
-        <f>SUM(I37:I43)</f>
-        <v>252.14</v>
+        <f>SUM(I35:I43)</f>
+        <v>252.15</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2339,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>7</v>
@@ -2365,18 +2318,18 @@
         <v>4693758.1205000002</v>
       </c>
       <c r="E47" s="5">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="61">
+        <v>21</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="43">
         <v>208.47</v>
       </c>
     </row>
@@ -2391,14 +2344,14 @@
         <v>4693754.3136</v>
       </c>
       <c r="E48" s="5">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="58"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="G48" s="74"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="43"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="23">
@@ -2411,14 +2364,14 @@
         <v>4693745.7829</v>
       </c>
       <c r="E49" s="5">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="G49" s="74"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="43"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="23">
@@ -2431,14 +2384,14 @@
         <v>4693766.6201999998</v>
       </c>
       <c r="E50" s="5">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="G50" s="74"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="43"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="23">
@@ -2451,16 +2404,16 @@
         <v>4693744.8530999999</v>
       </c>
       <c r="E51" s="5">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="61">
+        <v>22</v>
+      </c>
+      <c r="G51" s="74"/>
+      <c r="H51" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="43">
         <v>22.95</v>
       </c>
     </row>
@@ -2475,14 +2428,14 @@
         <v>4693757.18</v>
       </c>
       <c r="E52" s="5">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="61"/>
+        <v>22</v>
+      </c>
+      <c r="G52" s="74"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="43"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="23">
@@ -2495,16 +2448,16 @@
         <v>4693767.4647000004</v>
       </c>
       <c r="E53" s="5">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="33">
+        <v>22</v>
+      </c>
+      <c r="G53" s="74"/>
+      <c r="H53" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="24">
         <v>20.72</v>
       </c>
     </row>
@@ -2519,14 +2472,14 @@
         <v>4693755.1654000003</v>
       </c>
       <c r="E54" s="15">
-        <v>590.18700000000001</v>
+        <v>587.16200000000003</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="59"/>
+        <v>22</v>
+      </c>
+      <c r="G54" s="75"/>
       <c r="H54" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I54" s="31">
         <f>SUM(I47:I53)</f>
@@ -2552,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>7</v>
@@ -2578,18 +2531,18 @@
         <v>4693758.1205000002</v>
       </c>
       <c r="E57" s="5">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="61">
+        <v>26</v>
+      </c>
+      <c r="G57" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="43">
         <v>208.47</v>
       </c>
     </row>
@@ -2604,14 +2557,14 @@
         <v>4693754.3136</v>
       </c>
       <c r="E58" s="5">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="G58" s="74"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="43"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="23">
@@ -2624,14 +2577,14 @@
         <v>4693745.7829</v>
       </c>
       <c r="E59" s="5">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="G59" s="74"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="43"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="23">
@@ -2644,36 +2597,36 @@
         <v>4693766.6201999998</v>
       </c>
       <c r="E60" s="5">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="61"/>
+        <v>26</v>
+      </c>
+      <c r="G60" s="74"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="43"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="23">
         <v>8</v>
       </c>
       <c r="C61" s="19">
-        <v>7510834.5362</v>
+        <v>7510834.5436000004</v>
       </c>
       <c r="D61" s="20">
-        <v>4693744.8603999997</v>
+        <v>4693744.8530999999</v>
       </c>
       <c r="E61" s="5">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="61">
+        <v>27</v>
+      </c>
+      <c r="G61" s="74"/>
+      <c r="H61" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="43">
         <v>22.95</v>
       </c>
     </row>
@@ -2688,36 +2641,36 @@
         <v>4693757.18</v>
       </c>
       <c r="E62" s="5">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="61"/>
+        <v>27</v>
+      </c>
+      <c r="G62" s="74"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="43"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="23">
         <v>101</v>
       </c>
       <c r="C63" s="19">
-        <v>7510832.6496000001</v>
+        <v>7510832.6459999997</v>
       </c>
       <c r="D63" s="20">
-        <v>4693767.4611</v>
+        <v>4693767.4647000004</v>
       </c>
       <c r="E63" s="5">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="35">
+        <v>27</v>
+      </c>
+      <c r="G63" s="74"/>
+      <c r="H63" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="33">
         <v>20.72</v>
       </c>
     </row>
@@ -2732,31 +2685,29 @@
         <v>4693755.1654000003</v>
       </c>
       <c r="E64" s="15">
-        <v>593.27200000000005</v>
+        <v>590.18700000000001</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="59"/>
+        <v>27</v>
+      </c>
+      <c r="G64" s="75"/>
       <c r="H64" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I64" s="31">
         <f>SUM(I57:I63)</f>
         <v>252.14</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>5</v>
       </c>
@@ -2767,188 +2718,201 @@
         <v>1</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="23">
         <v>7</v>
       </c>
       <c r="C67" s="19">
-        <v>7510825.8598999996</v>
+        <v>7510823.2538000001</v>
       </c>
       <c r="D67" s="20">
-        <v>4693760.7132999999</v>
+        <v>4693758.1205000002</v>
       </c>
       <c r="E67" s="5">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H67" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="72">
-        <v>136.41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G67" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="43">
+        <v>208.47</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="23">
         <v>12</v>
       </c>
       <c r="C68" s="19">
-        <v>7510843.0706000002</v>
+        <v>7510843.9336000001</v>
       </c>
       <c r="D68" s="20">
-        <v>4693753.4441</v>
+        <v>4693754.3136</v>
       </c>
       <c r="E68" s="5">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G68" s="74"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="43"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="23">
         <v>13</v>
       </c>
       <c r="C69" s="19">
-        <v>7510838.0334000001</v>
+        <v>7510835.4665000001</v>
       </c>
       <c r="D69" s="20">
-        <v>4693748.3690999998</v>
+        <v>4693745.7829</v>
       </c>
       <c r="E69" s="5">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G69" s="74"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="43"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="23">
         <v>19</v>
       </c>
       <c r="C70" s="19">
-        <v>7510830.9287</v>
+        <v>7510831.7971999999</v>
       </c>
       <c r="D70" s="20">
-        <v>4693765.7561999997</v>
+        <v>4693766.6201999998</v>
       </c>
       <c r="E70" s="5">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G70" s="74"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="43"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="23">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="C71" s="19">
-        <v>7510833.7575000003</v>
+        <v>7510834.5362</v>
       </c>
       <c r="D71" s="20">
-        <v>4693752.7050000001</v>
+        <v>4693744.8603999997</v>
       </c>
       <c r="E71" s="5">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G71" s="74"/>
+      <c r="H71" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="43">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="23">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C72" s="19">
-        <v>7510832.0308999997</v>
+        <v>7510822.3084000004</v>
       </c>
       <c r="D72" s="20">
-        <v>4693751.0022</v>
+        <v>4693757.18</v>
       </c>
       <c r="E72" s="5">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G72" s="74"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="43"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="23">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C73" s="19">
-        <v>7510828.3795999996</v>
+        <v>7510832.6496000001</v>
       </c>
       <c r="D73" s="20">
-        <v>4693754.7046999997</v>
+        <v>4693767.4611</v>
       </c>
       <c r="E73" s="5">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G73" s="74"/>
+      <c r="H73" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="35">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="26">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C74" s="27">
-        <v>7510830.1062000003</v>
+        <v>7510844.7790999999</v>
       </c>
       <c r="D74" s="28">
-        <v>4693756.4073999999</v>
+        <v>4693755.1654000003</v>
       </c>
       <c r="E74" s="15">
-        <v>595.572</v>
+        <v>593.27200000000005</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G74" s="75"/>
+      <c r="H74" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="31">
+        <f>SUM(I67:I73)</f>
+        <v>252.14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="6"/>
@@ -2958,87 +2922,287 @@
       <c r="H75" s="39"/>
       <c r="I75" s="39"/>
     </row>
-    <row r="76" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="23">
+        <v>7</v>
+      </c>
+      <c r="C77" s="19">
+        <v>7510825.8598999996</v>
+      </c>
+      <c r="D77" s="20">
+        <v>4693760.7132999999</v>
+      </c>
+      <c r="E77" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="40">
+        <v>136.41</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="23">
+        <v>12</v>
+      </c>
+      <c r="C78" s="19">
+        <v>7510843.0706000002</v>
+      </c>
+      <c r="D78" s="20">
+        <v>4693753.4441</v>
+      </c>
+      <c r="E78" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="23">
+        <v>13</v>
+      </c>
+      <c r="C79" s="19">
+        <v>7510838.0334000001</v>
+      </c>
+      <c r="D79" s="20">
+        <v>4693748.3690999998</v>
+      </c>
+      <c r="E79" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="23">
+        <v>19</v>
+      </c>
+      <c r="C80" s="19">
+        <v>7510830.9287</v>
+      </c>
+      <c r="D80" s="20">
+        <v>4693765.7561999997</v>
+      </c>
+      <c r="E80" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="23">
+        <v>105</v>
+      </c>
+      <c r="C81" s="19">
+        <v>7510833.7575000003</v>
+      </c>
+      <c r="D81" s="20">
+        <v>4693752.7050000001</v>
+      </c>
+      <c r="E81" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="23">
+        <v>106</v>
+      </c>
+      <c r="C82" s="19">
+        <v>7510832.0308999997</v>
+      </c>
+      <c r="D82" s="20">
+        <v>4693751.0022</v>
+      </c>
+      <c r="E82" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="23">
+        <v>107</v>
+      </c>
+      <c r="C83" s="19">
+        <v>7510828.3795999996</v>
+      </c>
+      <c r="D83" s="20">
+        <v>4693754.7046999997</v>
+      </c>
+      <c r="E83" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="26">
+        <v>108</v>
+      </c>
+      <c r="C84" s="27">
+        <v>7510830.1062000003</v>
+      </c>
+      <c r="D84" s="28">
+        <v>4693756.4073999999</v>
+      </c>
+      <c r="E84" s="15">
+        <v>595.572</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+    </row>
+    <row r="86" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="49" t="s">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="45" t="s">
+      <c r="F87" s="66"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="46"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="41"/>
-    </row>
-    <row r="78" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="52" t="s">
+      <c r="I87" s="62"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="57"/>
+    </row>
+    <row r="88" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="55">
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="71">
         <v>152</v>
       </c>
-      <c r="F78" s="56"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="43"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K81" s="1"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="59"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K91" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H67:H74"/>
-    <mergeCell ref="I67:I74"/>
+  <mergeCells count="29">
+    <mergeCell ref="J87:K88"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H87:I88"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="G47:G54"/>
+    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H47:H50"/>
     <mergeCell ref="I47:I50"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="H57:H60"/>
     <mergeCell ref="H51:H52"/>
     <mergeCell ref="I51:I52"/>
+    <mergeCell ref="G77:G84"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="G15:G32"/>
+    <mergeCell ref="H15:H30"/>
+    <mergeCell ref="I15:I30"/>
+    <mergeCell ref="H77:H84"/>
+    <mergeCell ref="I77:I84"/>
     <mergeCell ref="I57:I60"/>
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="I61:I62"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="G37:G44"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="G47:G54"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="E16" sqref="B14:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="40">
-        <v>208.47</v>
+        <v>408.7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="77">
-        <v>9.24</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,8 +2016,8 @@
         <v>15</v>
       </c>
       <c r="I32" s="18">
-        <f>SUM(I15:I31)</f>
-        <v>226.95000000000002</v>
+        <f>I15+I31</f>
+        <v>411.34999999999997</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$94</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="38">
   <si>
     <t>Y</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>SHKALET</t>
+  </si>
+  <si>
+    <t>BODRUM</t>
+  </si>
+  <si>
+    <t>Bodrum</t>
   </si>
 </sst>
 </file>
@@ -626,14 +632,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,6 +731,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -736,12 +811,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,71 +844,20 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,7 +1054,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Zona Kadastrale: Ferizaj</a:t>
+            <a:t>Zona Kadastrale: Sojevë</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1111,7 +1129,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 00565-6</a:t>
+            <a:t>: 01997-0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1479,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="B14:I32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="B12:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,1715 +1512,1863 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-    </row>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>7517924.1610000003</v>
+      </c>
+      <c r="D13" s="18">
+        <v>4692685.9009999996</v>
+      </c>
+      <c r="E13" s="18">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="79">
+        <v>330.4</v>
+      </c>
+    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="22">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7517926.7680000002</v>
+      </c>
+      <c r="D14" s="18">
+        <v>4692678.1229999997</v>
+      </c>
+      <c r="E14" s="18">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
+        <v>4</v>
+      </c>
+      <c r="C15" s="18">
+        <v>7517929.4824999999</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4692679.0022999998</v>
+      </c>
+      <c r="E15" s="18">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="22">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18">
+        <v>7517931.1023000004</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4692674.0017999997</v>
+      </c>
+      <c r="E16" s="18">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="22">
+        <v>56</v>
+      </c>
+      <c r="C17" s="18">
+        <v>7517948.5199999996</v>
+      </c>
+      <c r="D17" s="18">
+        <v>4692694.1529999999</v>
+      </c>
+      <c r="E17" s="18">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>57</v>
+      </c>
+      <c r="C18" s="26">
+        <v>7517952.9117999999</v>
+      </c>
+      <c r="D18" s="26">
+        <v>4692681.6829000004</v>
+      </c>
+      <c r="E18" s="26">
+        <v>611.86699999999996</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C21" s="4">
         <v>7517924.0990000004</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D21" s="4">
         <v>4692685.9060000004</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E21" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G21" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H21" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I21" s="63">
         <v>408.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C22" s="4">
         <v>7517928.4419999998</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D22" s="4">
         <v>4692673.07</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E22" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
         <v>6</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C23" s="4">
         <v>7517929.8169999998</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D23" s="4">
         <v>4692673.5259999996</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E23" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
         <v>7</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C24" s="4">
         <v>7517929.96</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D24" s="4">
         <v>4692673.2819999997</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E24" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C25" s="4">
         <v>7517930.2989999996</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D25" s="4">
         <v>4692672.9689999996</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E25" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
         <v>9</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C26" s="4">
         <v>7517930.7450000001</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D26" s="4">
         <v>4692672.7690000003</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E26" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
         <v>10</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C27" s="4">
         <v>7517931.2220000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D27" s="4">
         <v>4692672.7319999998</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E27" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
         <v>11</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C28" s="4">
         <v>7517931.6050000004</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D28" s="4">
         <v>4692672.7970000003</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E28" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C29" s="4">
         <v>7517953.7189999996</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D29" s="4">
         <v>4692687.3470000001</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E29" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C30" s="4">
         <v>7517955.8949999996</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D30" s="4">
         <v>4692681.023</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E30" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
         <v>58</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C31" s="4">
         <v>7517951.3300000001</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D31" s="4">
         <v>4692686.5060000001</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E31" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
         <v>59</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C32" s="4">
         <v>7517951.9790000003</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D32" s="4">
         <v>4692687.1399999997</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E32" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="13">
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
         <v>60</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C33" s="4">
         <v>7517952.0760000004</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D33" s="4">
         <v>4692688.1239999998</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E33" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="12">
         <v>61</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C34" s="4">
         <v>7517950.1849999996</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D34" s="4">
         <v>4692693.4919999996</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E34" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
         <v>62</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C35" s="4">
         <v>7517949.5559999999</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D35" s="4">
         <v>4692694.1169999996</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E35" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41">
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64">
         <v>9.24</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="12">
         <v>63</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C36" s="4">
         <v>7517948.5300000003</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D36" s="4">
         <v>4692694.1579999998</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E36" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+      <c r="G36" s="64"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
         <v>14</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C37" s="4">
         <v>7517930.4069999997</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D37" s="4">
         <v>4692671.8150000004</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E37" s="15">
         <v>616.38300000000004</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="76" t="s">
+      <c r="G37" s="64"/>
+      <c r="H37" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="77">
+      <c r="I37" s="40">
         <v>2.65</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="13">
         <v>15</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C38" s="14">
         <v>7517928.9910000004</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D38" s="14">
         <v>4692671.3689999999</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E38" s="16">
         <v>616.38300000000004</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="17" t="s">
+      <c r="G38" s="65"/>
+      <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="18">
-        <f>I15+I31</f>
+      <c r="I38" s="17">
+        <f>I21+I37</f>
         <v>411.34999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I40" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="22">
         <v>7</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C41" s="18">
         <v>7510827.4069999997</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D41" s="19">
         <v>4693753.9248000002</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E41" s="4">
         <v>584.09</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G41" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H41" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I41" s="23">
         <v>224.06</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="23">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="22">
         <v>12</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C42" s="18">
         <v>7510843.9336000001</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D42" s="19">
         <v>4693754.3136</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E42" s="4">
         <v>584.09</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="22">
         <v>13</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C43" s="18">
         <v>7510834.5436000004</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D43" s="19">
         <v>4693744.8530999999</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E43" s="4">
         <v>584.09</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="24"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="23">
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="22">
         <v>19</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C44" s="18">
         <v>7510831.7971999999</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D44" s="19">
         <v>4693766.6201999998</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E44" s="4">
         <v>584.09</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="22">
         <v>52</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C45" s="18">
         <v>7510831.3317</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D45" s="19">
         <v>4693749.9599000001</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E45" s="4">
         <v>584.09</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="22">
         <v>56</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C46" s="18">
         <v>7510822.3073000005</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D46" s="19">
         <v>4693757.1810999997</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E46" s="4">
         <v>584.09</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="22">
         <v>8</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C47" s="18">
         <v>7510830.3949999996</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D47" s="19">
         <v>4693749.0327000003</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E47" s="4">
         <v>584.09</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I47" s="23">
         <v>20.72</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="22">
         <v>100</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C48" s="18">
         <v>7510826.4649999999</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D48" s="19">
         <v>4693752.9923</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E48" s="4">
         <v>584.09</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="22">
         <v>101</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C49" s="18">
         <v>7510832.6496000001</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D49" s="19">
         <v>4693767.4611</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E49" s="4">
         <v>584.09</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="37" t="s">
+      <c r="G49" s="20"/>
+      <c r="H49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I49" s="35">
         <v>7.37</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26">
+    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="25">
         <v>102</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C50" s="26">
         <v>7510844.7790999999</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D50" s="27">
         <v>4693755.1654000003</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E50" s="14">
         <v>584.09</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30" t="s">
+      <c r="G50" s="28"/>
+      <c r="H50" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="31">
-        <f>SUM(I35:I43)</f>
+      <c r="I50" s="30">
+        <f>SUM(I41:I49)</f>
         <v>252.15</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I52" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="22">
         <v>7</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C53" s="18">
         <v>7510823.2538000001</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D53" s="19">
         <v>4693758.1205000002</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E53" s="4">
         <v>587.16200000000003</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="74" t="s">
+      <c r="G53" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H53" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I53" s="62">
         <v>208.47</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="23">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="22">
         <v>12</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C54" s="18">
         <v>7510843.9336000001</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D54" s="19">
         <v>4693754.3136</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E54" s="4">
         <v>587.16200000000003</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="74"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="43"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
+      <c r="G54" s="59"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="22">
         <v>13</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C55" s="18">
         <v>7510835.4665000001</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D55" s="19">
         <v>4693745.7829</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E55" s="4">
         <v>587.16200000000003</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="43"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="23">
+      <c r="G55" s="59"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="22">
         <v>19</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C56" s="18">
         <v>7510831.7971999999</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D56" s="19">
         <v>4693766.6201999998</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E56" s="4">
         <v>587.16200000000003</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="74"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="43"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="23">
+      <c r="G56" s="59"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="22">
         <v>8</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C57" s="18">
         <v>7510834.5436000004</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D57" s="19">
         <v>4693744.8530999999</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E57" s="4">
         <v>587.16200000000003</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="44" t="s">
+      <c r="G57" s="59"/>
+      <c r="H57" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="43">
+      <c r="I57" s="62">
         <v>22.95</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="23">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="22">
         <v>100</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C58" s="18">
         <v>7510822.3084000004</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D58" s="19">
         <v>4693757.18</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E58" s="4">
         <v>587.16200000000003</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="74"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="43"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="23">
+      <c r="G58" s="59"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="62"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="22">
         <v>101</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C59" s="18">
         <v>7510832.6459999997</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D59" s="19">
         <v>4693767.4647000004</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E59" s="4">
         <v>587.16200000000003</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="74"/>
-      <c r="H53" s="22" t="s">
+      <c r="G59" s="59"/>
+      <c r="H59" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I59" s="23">
         <v>20.72</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="26">
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="25">
         <v>102</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C60" s="26">
         <v>7510844.7790999999</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D60" s="27">
         <v>4693755.1654000003</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E60" s="14">
         <v>587.16200000000003</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F60" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="75"/>
-      <c r="H54" s="30" t="s">
+      <c r="G60" s="60"/>
+      <c r="H60" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="31">
-        <f>SUM(I47:I53)</f>
+      <c r="I60" s="30">
+        <f>SUM(I53:I59)</f>
         <v>252.14</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+    <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I62" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="23">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="22">
         <v>7</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C63" s="18">
         <v>7510823.2538000001</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D63" s="19">
         <v>4693758.1205000002</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E63" s="4">
         <v>590.18700000000001</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="74" t="s">
+      <c r="G63" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="44" t="s">
+      <c r="H63" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="43">
+      <c r="I63" s="62">
         <v>208.47</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="23">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="22">
         <v>12</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C64" s="18">
         <v>7510843.9336000001</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D64" s="19">
         <v>4693754.3136</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E64" s="4">
         <v>590.18700000000001</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="43"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="23">
+      <c r="G64" s="59"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="62"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="22">
         <v>13</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C65" s="18">
         <v>7510835.4665000001</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D65" s="19">
         <v>4693745.7829</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E65" s="4">
         <v>590.18700000000001</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="74"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="43"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="23">
+      <c r="G65" s="59"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="62"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="22">
         <v>19</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C66" s="18">
         <v>7510831.7971999999</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D66" s="19">
         <v>4693766.6201999998</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E66" s="4">
         <v>590.18700000000001</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="74"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="43"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="23">
+      <c r="G66" s="59"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="22">
         <v>8</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C67" s="18">
         <v>7510834.5436000004</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D67" s="19">
         <v>4693744.8530999999</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E67" s="4">
         <v>590.18700000000001</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="74"/>
-      <c r="H61" s="44" t="s">
+      <c r="G67" s="59"/>
+      <c r="H67" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I67" s="62">
         <v>22.95</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="23">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="22">
         <v>100</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C68" s="18">
         <v>7510822.3084000004</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D68" s="19">
         <v>4693757.18</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E68" s="4">
         <v>590.18700000000001</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="74"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="43"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="23">
+      <c r="G68" s="59"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="62"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="22">
         <v>101</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C69" s="18">
         <v>7510832.6459999997</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D69" s="19">
         <v>4693767.4647000004</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E69" s="4">
         <v>590.18700000000001</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="74"/>
-      <c r="H63" s="32" t="s">
+      <c r="G69" s="59"/>
+      <c r="H69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I69" s="32">
         <v>20.72</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="26">
+    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="25">
         <v>102</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C70" s="26">
         <v>7510844.7790999999</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D70" s="27">
         <v>4693755.1654000003</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E70" s="14">
         <v>590.18700000000001</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F70" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G64" s="75"/>
-      <c r="H64" s="30" t="s">
+      <c r="G70" s="60"/>
+      <c r="H70" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="31">
-        <f>SUM(I57:I63)</f>
+      <c r="I70" s="30">
+        <f>SUM(I63:I69)</f>
         <v>252.14</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H72" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="I72" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="22">
         <v>7</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C73" s="18">
         <v>7510823.2538000001</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D73" s="19">
         <v>4693758.1205000002</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E73" s="4">
         <v>593.27200000000005</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="74" t="s">
+      <c r="G73" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="44" t="s">
+      <c r="H73" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I67" s="43">
+      <c r="I73" s="62">
         <v>208.47</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="23">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="22">
         <v>12</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C74" s="18">
         <v>7510843.9336000001</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D74" s="19">
         <v>4693754.3136</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E74" s="4">
         <v>593.27200000000005</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="74"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="43"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
+      <c r="G74" s="59"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="62"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="22">
         <v>13</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C75" s="18">
         <v>7510835.4665000001</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D75" s="19">
         <v>4693745.7829</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E75" s="4">
         <v>593.27200000000005</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="74"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="43"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="23">
+      <c r="G75" s="59"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="62"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="22">
         <v>19</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C76" s="18">
         <v>7510831.7971999999</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D76" s="19">
         <v>4693766.6201999998</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E76" s="4">
         <v>593.27200000000005</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G70" s="74"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="43"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
+      <c r="G76" s="59"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="22">
         <v>8</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C77" s="18">
         <v>7510834.5362</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D77" s="19">
         <v>4693744.8603999997</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E77" s="4">
         <v>593.27200000000005</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="74"/>
-      <c r="H71" s="44" t="s">
+      <c r="G77" s="59"/>
+      <c r="H77" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I77" s="62">
         <v>22.95</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="23">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="22">
         <v>100</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C78" s="18">
         <v>7510822.3084000004</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D78" s="19">
         <v>4693757.18</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E78" s="4">
         <v>593.27200000000005</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="74"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="43"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
+      <c r="G78" s="59"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="62"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="22">
         <v>101</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C79" s="18">
         <v>7510832.6496000001</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D79" s="19">
         <v>4693767.4611</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E79" s="4">
         <v>593.27200000000005</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G73" s="74"/>
-      <c r="H73" s="34" t="s">
+      <c r="G79" s="59"/>
+      <c r="H79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="35">
+      <c r="I79" s="34">
         <v>20.72</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="26">
+    <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="25">
         <v>102</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C80" s="26">
         <v>7510844.7790999999</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D80" s="27">
         <v>4693755.1654000003</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E80" s="14">
         <v>593.27200000000005</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="75"/>
-      <c r="H74" s="30" t="s">
+      <c r="G80" s="60"/>
+      <c r="H80" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I74" s="31">
-        <f>SUM(I67:I73)</f>
+      <c r="I80" s="30">
+        <f>SUM(I73:I79)</f>
         <v>252.14</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F82" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H82" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I82" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="23">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="22">
         <v>7</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C83" s="18">
         <v>7510825.8598999996</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D83" s="19">
         <v>4693760.7132999999</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E83" s="4">
         <v>595.572</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="40" t="s">
+      <c r="G83" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="40" t="s">
+      <c r="H83" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I83" s="63">
         <v>136.41</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="23">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="22">
         <v>12</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C84" s="18">
         <v>7510843.0706000002</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D84" s="19">
         <v>4693753.4441</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E84" s="4">
         <v>595.572</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="23">
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="22">
         <v>13</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C85" s="18">
         <v>7510838.0334000001</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D85" s="19">
         <v>4693748.3690999998</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E85" s="4">
         <v>595.572</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="23">
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="22">
         <v>19</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C86" s="18">
         <v>7510830.9287</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D86" s="19">
         <v>4693765.7561999997</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E86" s="4">
         <v>595.572</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="22">
         <v>105</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C87" s="18">
         <v>7510833.7575000003</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D87" s="19">
         <v>4693752.7050000001</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E87" s="4">
         <v>595.572</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="23">
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="22">
         <v>106</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C88" s="18">
         <v>7510832.0308999997</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D88" s="19">
         <v>4693751.0022</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E88" s="4">
         <v>595.572</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="23">
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="22">
         <v>107</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C89" s="18">
         <v>7510828.3795999996</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D89" s="19">
         <v>4693754.7046999997</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E89" s="4">
         <v>595.572</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="26">
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="25">
         <v>108</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C90" s="26">
         <v>7510830.1062000003</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D90" s="27">
         <v>4693756.4073999999</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E90" s="14">
         <v>595.572</v>
       </c>
-      <c r="F84" s="15" t="s">
+      <c r="F90" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-    </row>
-    <row r="86" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+    </row>
+    <row r="92" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="65" t="s">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="66"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="61" t="s">
+      <c r="F93" s="51"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I87" s="62"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="57"/>
-    </row>
-    <row r="88" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="68" t="s">
+      <c r="I93" s="47"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="42"/>
+    </row>
+    <row r="94" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="71">
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="56">
         <v>152</v>
       </c>
-      <c r="F88" s="72"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="59"/>
-    </row>
-    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K91" s="1"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="44"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K97" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="J87:K88"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H87:I88"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="G47:G54"/>
-    <mergeCell ref="G67:G74"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="G77:G84"/>
+  <mergeCells count="32">
+    <mergeCell ref="H83:H90"/>
+    <mergeCell ref="I83:I90"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I73:I76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
-    <mergeCell ref="G15:G32"/>
-    <mergeCell ref="H15:H30"/>
-    <mergeCell ref="I15:I30"/>
-    <mergeCell ref="H77:H84"/>
-    <mergeCell ref="I77:I84"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="G21:G38"/>
+    <mergeCell ref="H21:H36"/>
+    <mergeCell ref="I21:I36"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="J93:K94"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H93:I94"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="G53:G60"/>
+    <mergeCell ref="G73:G80"/>
+    <mergeCell ref="H73:H76"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="G63:G70"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="G83:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
   <si>
     <t>Y</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>KATI1</t>
-  </si>
-  <si>
-    <t>KATI1-TERASAT</t>
   </si>
   <si>
     <t>Kati1</t>
@@ -632,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -683,9 +680,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -693,15 +687,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,12 +708,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -736,6 +720,69 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,69 +842,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="B12:I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B40:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,115 +1500,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1649,12 +1633,12 @@
       <c r="H12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>1</v>
       </c>
       <c r="C13" s="18">
@@ -1667,20 +1651,20 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="79">
+      <c r="H13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="55">
         <v>330.4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>3</v>
       </c>
       <c r="C14" s="18">
@@ -1693,14 +1677,14 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+        <v>35</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>4</v>
       </c>
       <c r="C15" s="18">
@@ -1713,14 +1697,14 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+        <v>35</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>12</v>
       </c>
       <c r="C16" s="18">
@@ -1733,14 +1717,14 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
+        <v>35</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>56</v>
       </c>
       <c r="C17" s="18">
@@ -1753,31 +1737,31 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
+        <v>35</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>57</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>7517952.9117999999</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>4692681.6829000004</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>611.86699999999996</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
+      <c r="F18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1820,15 +1804,15 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="37">
         <v>408.7</v>
       </c>
     </row>
@@ -1846,11 +1830,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -1866,11 +1850,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -1886,11 +1870,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -1906,11 +1890,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -1926,11 +1910,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -1946,11 +1930,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -1966,11 +1950,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -1986,11 +1970,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -2006,11 +1990,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
@@ -2026,11 +2010,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
@@ -2046,11 +2030,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -2066,11 +2050,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -2086,11 +2070,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -2106,11 +2090,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64">
+        <v>33</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38">
         <v>9.24</v>
       </c>
     </row>
@@ -2128,11 +2112,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
+        <v>33</v>
+      </c>
+      <c r="G36" s="38"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
@@ -2148,13 +2132,13 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="H37" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="35">
         <v>2.65</v>
       </c>
     </row>
@@ -2172,9 +2156,9 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="65"/>
+        <v>34</v>
+      </c>
+      <c r="G38" s="39"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -2218,1133 +2202,1371 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="22">
-        <v>7</v>
+      <c r="B41" s="21">
+        <v>2</v>
       </c>
       <c r="C41" s="18">
-        <v>7510827.4069999997</v>
+        <v>7517924.0990000004</v>
       </c>
       <c r="D41" s="19">
-        <v>4693753.9248000002</v>
+        <v>4692685.9060000004</v>
       </c>
       <c r="E41" s="4">
-        <v>584.09</v>
+        <v>618.84299999999996</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="23">
-        <v>224.06</v>
+      <c r="I41" s="37">
+        <v>399.84</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="22">
-        <v>12</v>
+      <c r="B42" s="21">
+        <v>5</v>
       </c>
       <c r="C42" s="18">
-        <v>7510843.9336000001</v>
+        <v>7517928.4419999998</v>
       </c>
       <c r="D42" s="19">
-        <v>4693754.3136</v>
+        <v>4692673.07</v>
       </c>
       <c r="E42" s="4">
-        <v>584.09</v>
+        <v>618.84299999999996</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="24"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="22">
-        <v>13</v>
+      <c r="B43" s="21">
+        <v>6</v>
       </c>
       <c r="C43" s="18">
-        <v>7510834.5436000004</v>
+        <v>7517929.8169999998</v>
       </c>
       <c r="D43" s="19">
-        <v>4693744.8530999999</v>
+        <v>4692673.5259999996</v>
       </c>
       <c r="E43" s="4">
-        <v>584.09</v>
+        <v>618.84299999999996</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="23"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="22">
-        <v>19</v>
+      <c r="B44" s="21">
+        <v>7</v>
       </c>
       <c r="C44" s="18">
-        <v>7510831.7971999999</v>
+        <v>7517929.96</v>
       </c>
       <c r="D44" s="19">
-        <v>4693766.6201999998</v>
+        <v>4692673.2819999997</v>
       </c>
       <c r="E44" s="4">
-        <v>584.09</v>
+        <v>618.84299999999996</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="22">
-        <v>52</v>
+      <c r="B45" s="21">
+        <v>8</v>
       </c>
       <c r="C45" s="18">
-        <v>7510831.3317</v>
+        <v>7517930.2989999996</v>
       </c>
       <c r="D45" s="19">
-        <v>4693749.9599000001</v>
+        <v>4692672.9689999996</v>
       </c>
       <c r="E45" s="4">
-        <v>584.09</v>
+        <v>618.84299999999996</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="23"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="22">
-        <v>56</v>
+      <c r="B46" s="21">
+        <v>9</v>
       </c>
       <c r="C46" s="18">
-        <v>7510822.3073000005</v>
+        <v>7517930.7450000001</v>
       </c>
       <c r="D46" s="19">
-        <v>4693757.1810999997</v>
+        <v>4692672.7690000003</v>
       </c>
       <c r="E46" s="4">
-        <v>584.09</v>
+        <v>618.84299999999996</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="23"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="22">
+      <c r="B47" s="21">
+        <v>10</v>
+      </c>
+      <c r="C47" s="18">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="D47" s="19">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="E47" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="21">
+        <v>11</v>
+      </c>
+      <c r="C48" s="18">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="D48" s="19">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="E48" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="21">
+        <v>34</v>
+      </c>
+      <c r="C49" s="18">
+        <v>7517945.9960000003</v>
+      </c>
+      <c r="D49" s="19">
+        <v>4692677.4869999997</v>
+      </c>
+      <c r="E49" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="21">
+        <v>35</v>
+      </c>
+      <c r="C50" s="18">
+        <v>7517945.9700999996</v>
+      </c>
+      <c r="D50" s="19">
+        <v>4692677.5620999997</v>
+      </c>
+      <c r="E50" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="21">
+        <v>41</v>
+      </c>
+      <c r="C51" s="18">
+        <v>7517950.0548999999</v>
+      </c>
+      <c r="D51" s="19">
+        <v>4692678.9175000004</v>
+      </c>
+      <c r="E51" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="21">
+        <v>42</v>
+      </c>
+      <c r="C52" s="18">
+        <v>7517950.4249999998</v>
+      </c>
+      <c r="D52" s="19">
+        <v>4692677.8820000002</v>
+      </c>
+      <c r="E52" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="21">
+        <v>43</v>
+      </c>
+      <c r="C53" s="18">
+        <v>7517953.7850000001</v>
+      </c>
+      <c r="D53" s="19">
+        <v>4692679.0829999996</v>
+      </c>
+      <c r="E53" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="21">
+        <v>58</v>
+      </c>
+      <c r="C54" s="18">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="D54" s="19">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="E54" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="21">
+        <v>59</v>
+      </c>
+      <c r="C55" s="18">
+        <v>7517951.9790000003</v>
+      </c>
+      <c r="D55" s="19">
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="E55" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="21">
+        <v>60</v>
+      </c>
+      <c r="C56" s="18">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="D56" s="19">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="E56" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="21">
+        <v>61</v>
+      </c>
+      <c r="C57" s="18">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="D57" s="19">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="E57" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="21">
+        <v>62</v>
+      </c>
+      <c r="C58" s="18">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="D58" s="19">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="E58" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="21">
+        <v>63</v>
+      </c>
+      <c r="C59" s="18">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="D59" s="19">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="E59" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="21">
+        <v>102</v>
+      </c>
+      <c r="C60" s="18">
+        <v>7517936.4840000002</v>
+      </c>
+      <c r="D60" s="19">
+        <v>4692674.3847000003</v>
+      </c>
+      <c r="E60" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="21">
+        <v>103</v>
+      </c>
+      <c r="C61" s="18">
+        <v>7517936.5029999996</v>
+      </c>
+      <c r="D61" s="19">
+        <v>4692674.3310000002</v>
+      </c>
+      <c r="E61" s="4">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="23">
+        <v>104</v>
+      </c>
+      <c r="C62" s="24">
+        <v>7517941.3384999996</v>
+      </c>
+      <c r="D62" s="25">
+        <v>4692675.6413000003</v>
+      </c>
+      <c r="E62" s="14">
+        <v>618.84299999999996</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="21">
+        <v>7</v>
+      </c>
+      <c r="C65" s="18">
+        <v>7510823.2538000001</v>
+      </c>
+      <c r="D65" s="19">
+        <v>4693758.1205000002</v>
+      </c>
+      <c r="E65" s="4">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="40">
+        <v>208.47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="21">
+        <v>12</v>
+      </c>
+      <c r="C66" s="18">
+        <v>7510843.9336000001</v>
+      </c>
+      <c r="D66" s="19">
+        <v>4693754.3136</v>
+      </c>
+      <c r="E66" s="4">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="75"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="40"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="21">
+        <v>13</v>
+      </c>
+      <c r="C67" s="18">
+        <v>7510835.4665000001</v>
+      </c>
+      <c r="D67" s="19">
+        <v>4693745.7829</v>
+      </c>
+      <c r="E67" s="4">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="75"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="40"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="21">
+        <v>19</v>
+      </c>
+      <c r="C68" s="18">
+        <v>7510831.7971999999</v>
+      </c>
+      <c r="D68" s="19">
+        <v>4693766.6201999998</v>
+      </c>
+      <c r="E68" s="4">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="75"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="40"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="21">
         <v>8</v>
       </c>
-      <c r="C47" s="18">
-        <v>7510830.3949999996</v>
-      </c>
-      <c r="D47" s="19">
-        <v>4693749.0327000003</v>
-      </c>
-      <c r="E47" s="4">
-        <v>584.09</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="23">
+      <c r="C69" s="18">
+        <v>7510834.5436000004</v>
+      </c>
+      <c r="D69" s="19">
+        <v>4693744.8530999999</v>
+      </c>
+      <c r="E69" s="4">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="75"/>
+      <c r="H69" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="40">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="21">
+        <v>100</v>
+      </c>
+      <c r="C70" s="18">
+        <v>7510822.3084000004</v>
+      </c>
+      <c r="D70" s="19">
+        <v>4693757.18</v>
+      </c>
+      <c r="E70" s="4">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="75"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="40"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
+        <v>101</v>
+      </c>
+      <c r="C71" s="18">
+        <v>7510832.6459999997</v>
+      </c>
+      <c r="D71" s="19">
+        <v>4693767.4647000004</v>
+      </c>
+      <c r="E71" s="4">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="75"/>
+      <c r="H71" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="22">
         <v>20.72</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="22">
+    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="23">
+        <v>102</v>
+      </c>
+      <c r="C72" s="24">
+        <v>7510844.7790999999</v>
+      </c>
+      <c r="D72" s="25">
+        <v>4693755.1654000003</v>
+      </c>
+      <c r="E72" s="14">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="76"/>
+      <c r="H72" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="27">
+        <f>SUM(I65:I71)</f>
+        <v>252.14</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
+        <v>7</v>
+      </c>
+      <c r="C75" s="18">
+        <v>7510823.2538000001</v>
+      </c>
+      <c r="D75" s="19">
+        <v>4693758.1205000002</v>
+      </c>
+      <c r="E75" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="40">
+        <v>208.47</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="21">
+        <v>12</v>
+      </c>
+      <c r="C76" s="18">
+        <v>7510843.9336000001</v>
+      </c>
+      <c r="D76" s="19">
+        <v>4693754.3136</v>
+      </c>
+      <c r="E76" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="75"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="40"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
+        <v>13</v>
+      </c>
+      <c r="C77" s="18">
+        <v>7510835.4665000001</v>
+      </c>
+      <c r="D77" s="19">
+        <v>4693745.7829</v>
+      </c>
+      <c r="E77" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="75"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
+        <v>19</v>
+      </c>
+      <c r="C78" s="18">
+        <v>7510831.7971999999</v>
+      </c>
+      <c r="D78" s="19">
+        <v>4693766.6201999998</v>
+      </c>
+      <c r="E78" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="75"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="40"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
+        <v>8</v>
+      </c>
+      <c r="C79" s="18">
+        <v>7510834.5436000004</v>
+      </c>
+      <c r="D79" s="19">
+        <v>4693744.8530999999</v>
+      </c>
+      <c r="E79" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="75"/>
+      <c r="H79" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="40">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
         <v>100</v>
       </c>
-      <c r="C48" s="18">
-        <v>7510826.4649999999</v>
-      </c>
-      <c r="D48" s="19">
-        <v>4693752.9923</v>
-      </c>
-      <c r="E48" s="4">
-        <v>584.09</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="22">
+      <c r="C80" s="18">
+        <v>7510822.3084000004</v>
+      </c>
+      <c r="D80" s="19">
+        <v>4693757.18</v>
+      </c>
+      <c r="E80" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="75"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
         <v>101</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C81" s="18">
+        <v>7510832.6459999997</v>
+      </c>
+      <c r="D81" s="19">
+        <v>4693767.4647000004</v>
+      </c>
+      <c r="E81" s="4">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="75"/>
+      <c r="H81" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="29">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="23">
+        <v>102</v>
+      </c>
+      <c r="C82" s="24">
+        <v>7510844.7790999999</v>
+      </c>
+      <c r="D82" s="25">
+        <v>4693755.1654000003</v>
+      </c>
+      <c r="E82" s="14">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="76"/>
+      <c r="H82" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="27">
+        <f>SUM(I75:I81)</f>
+        <v>252.14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="21">
+        <v>7</v>
+      </c>
+      <c r="C85" s="18">
+        <v>7510823.2538000001</v>
+      </c>
+      <c r="D85" s="19">
+        <v>4693758.1205000002</v>
+      </c>
+      <c r="E85" s="4">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" s="40">
+        <v>208.47</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="21">
+        <v>12</v>
+      </c>
+      <c r="C86" s="18">
+        <v>7510843.9336000001</v>
+      </c>
+      <c r="D86" s="19">
+        <v>4693754.3136</v>
+      </c>
+      <c r="E86" s="4">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="75"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="40"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="21">
+        <v>13</v>
+      </c>
+      <c r="C87" s="18">
+        <v>7510835.4665000001</v>
+      </c>
+      <c r="D87" s="19">
+        <v>4693745.7829</v>
+      </c>
+      <c r="E87" s="4">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="75"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="40"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="21">
+        <v>19</v>
+      </c>
+      <c r="C88" s="18">
+        <v>7510831.7971999999</v>
+      </c>
+      <c r="D88" s="19">
+        <v>4693766.6201999998</v>
+      </c>
+      <c r="E88" s="4">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="75"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="40"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="21">
+        <v>8</v>
+      </c>
+      <c r="C89" s="18">
+        <v>7510834.5362</v>
+      </c>
+      <c r="D89" s="19">
+        <v>4693744.8603999997</v>
+      </c>
+      <c r="E89" s="4">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="75"/>
+      <c r="H89" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="40">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="21">
+        <v>100</v>
+      </c>
+      <c r="C90" s="18">
+        <v>7510822.3084000004</v>
+      </c>
+      <c r="D90" s="19">
+        <v>4693757.18</v>
+      </c>
+      <c r="E90" s="4">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="75"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="40"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="21">
+        <v>101</v>
+      </c>
+      <c r="C91" s="18">
         <v>7510832.6496000001</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D91" s="19">
         <v>4693767.4611</v>
       </c>
-      <c r="E49" s="4">
-        <v>584.09</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="35">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="25">
+      <c r="E91" s="4">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="75"/>
+      <c r="H91" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="31">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="23">
         <v>102</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C92" s="24">
         <v>7510844.7790999999</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D92" s="25">
         <v>4693755.1654000003</v>
       </c>
-      <c r="E50" s="14">
-        <v>584.09</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="30">
-        <f>SUM(I41:I49)</f>
-        <v>252.15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
+      <c r="E92" s="14">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="76"/>
+      <c r="H92" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="27">
+        <f>SUM(I85:I91)</f>
+        <v>252.14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D94" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G94" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H94" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I94" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="22">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="21">
         <v>7</v>
       </c>
-      <c r="C53" s="18">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D53" s="19">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E53" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="62">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="22">
+      <c r="C95" s="18">
+        <v>7510825.8598999996</v>
+      </c>
+      <c r="D95" s="19">
+        <v>4693760.7132999999</v>
+      </c>
+      <c r="E95" s="4">
+        <v>595.572</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" s="37">
+        <v>136.41</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="21">
         <v>12</v>
       </c>
-      <c r="C54" s="18">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D54" s="19">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E54" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="59"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="22">
+      <c r="C96" s="18">
+        <v>7510843.0706000002</v>
+      </c>
+      <c r="D96" s="19">
+        <v>4693753.4441</v>
+      </c>
+      <c r="E96" s="4">
+        <v>595.572</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="21">
         <v>13</v>
       </c>
-      <c r="C55" s="18">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D55" s="19">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E55" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="59"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="22">
+      <c r="C97" s="18">
+        <v>7510838.0334000001</v>
+      </c>
+      <c r="D97" s="19">
+        <v>4693748.3690999998</v>
+      </c>
+      <c r="E97" s="4">
+        <v>595.572</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="21">
         <v>19</v>
       </c>
-      <c r="C56" s="18">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D56" s="19">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E56" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="59"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="62"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="22">
-        <v>8</v>
-      </c>
-      <c r="C57" s="18">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D57" s="19">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E57" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="59"/>
-      <c r="H57" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="62">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="22">
-        <v>100</v>
-      </c>
-      <c r="C58" s="18">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D58" s="19">
-        <v>4693757.18</v>
-      </c>
-      <c r="E58" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="59"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="22">
-        <v>101</v>
-      </c>
-      <c r="C59" s="18">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D59" s="19">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E59" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="59"/>
-      <c r="H59" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="23">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="25">
-        <v>102</v>
-      </c>
-      <c r="C60" s="26">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D60" s="27">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E60" s="14">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" s="30">
-        <f>SUM(I53:I59)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="22">
-        <v>7</v>
-      </c>
-      <c r="C63" s="18">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D63" s="19">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E63" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="62">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="22">
-        <v>12</v>
-      </c>
-      <c r="C64" s="18">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D64" s="19">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E64" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="59"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="62"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="22">
-        <v>13</v>
-      </c>
-      <c r="C65" s="18">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D65" s="19">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E65" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="59"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="62"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="22">
-        <v>19</v>
-      </c>
-      <c r="C66" s="18">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D66" s="19">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E66" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="59"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="62"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="22">
-        <v>8</v>
-      </c>
-      <c r="C67" s="18">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D67" s="19">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E67" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="59"/>
-      <c r="H67" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="62">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="22">
-        <v>100</v>
-      </c>
-      <c r="C68" s="18">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D68" s="19">
-        <v>4693757.18</v>
-      </c>
-      <c r="E68" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="59"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="62"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="22">
-        <v>101</v>
-      </c>
-      <c r="C69" s="18">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D69" s="19">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E69" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" s="59"/>
-      <c r="H69" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="32">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="25">
-        <v>102</v>
-      </c>
-      <c r="C70" s="26">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D70" s="27">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E70" s="14">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="60"/>
-      <c r="H70" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" s="30">
-        <f>SUM(I63:I69)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="22">
-        <v>7</v>
-      </c>
-      <c r="C73" s="18">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D73" s="19">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E73" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="59" t="s">
+      <c r="C98" s="18">
+        <v>7510830.9287</v>
+      </c>
+      <c r="D98" s="19">
+        <v>4693765.7561999997</v>
+      </c>
+      <c r="E98" s="4">
+        <v>595.572</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="61" t="s">
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="21">
+        <v>105</v>
+      </c>
+      <c r="C99" s="18">
+        <v>7510833.7575000003</v>
+      </c>
+      <c r="D99" s="19">
+        <v>4693752.7050000001</v>
+      </c>
+      <c r="E99" s="4">
+        <v>595.572</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="62">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="22">
-        <v>12</v>
-      </c>
-      <c r="C74" s="18">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D74" s="19">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E74" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="59"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="62"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="22">
-        <v>13</v>
-      </c>
-      <c r="C75" s="18">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D75" s="19">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E75" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="59"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="22">
-        <v>19</v>
-      </c>
-      <c r="C76" s="18">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D76" s="19">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E76" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="59"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="62"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="22">
-        <v>8</v>
-      </c>
-      <c r="C77" s="18">
-        <v>7510834.5362</v>
-      </c>
-      <c r="D77" s="19">
-        <v>4693744.8603999997</v>
-      </c>
-      <c r="E77" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" s="59"/>
-      <c r="H77" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="62">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="22">
-        <v>100</v>
-      </c>
-      <c r="C78" s="18">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D78" s="19">
-        <v>4693757.18</v>
-      </c>
-      <c r="E78" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" s="59"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="62"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="22">
-        <v>101</v>
-      </c>
-      <c r="C79" s="18">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="D79" s="19">
-        <v>4693767.4611</v>
-      </c>
-      <c r="E79" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" s="59"/>
-      <c r="H79" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="34">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="25">
-        <v>102</v>
-      </c>
-      <c r="C80" s="26">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D80" s="27">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E80" s="14">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" s="60"/>
-      <c r="H80" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" s="30">
-        <f>SUM(I73:I79)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="22">
-        <v>7</v>
-      </c>
-      <c r="C83" s="18">
-        <v>7510825.8598999996</v>
-      </c>
-      <c r="D83" s="19">
-        <v>4693760.7132999999</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="21">
+        <v>106</v>
+      </c>
+      <c r="C100" s="18">
+        <v>7510832.0308999997</v>
+      </c>
+      <c r="D100" s="19">
+        <v>4693751.0022</v>
+      </c>
+      <c r="E100" s="4">
         <v>595.572</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="I83" s="63">
-        <v>136.41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="22">
-        <v>12</v>
-      </c>
-      <c r="C84" s="18">
-        <v>7510843.0706000002</v>
-      </c>
-      <c r="D84" s="19">
-        <v>4693753.4441</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="F100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="21">
+        <v>107</v>
+      </c>
+      <c r="C101" s="18">
+        <v>7510828.3795999996</v>
+      </c>
+      <c r="D101" s="19">
+        <v>4693754.7046999997</v>
+      </c>
+      <c r="E101" s="4">
         <v>595.572</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="22">
-        <v>13</v>
-      </c>
-      <c r="C85" s="18">
-        <v>7510838.0334000001</v>
-      </c>
-      <c r="D85" s="19">
-        <v>4693748.3690999998</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="F101" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="23">
+        <v>108</v>
+      </c>
+      <c r="C102" s="24">
+        <v>7510830.1062000003</v>
+      </c>
+      <c r="D102" s="25">
+        <v>4693756.4073999999</v>
+      </c>
+      <c r="E102" s="14">
         <v>595.572</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="22">
-        <v>19</v>
-      </c>
-      <c r="C86" s="18">
-        <v>7510830.9287</v>
-      </c>
-      <c r="D86" s="19">
-        <v>4693765.7561999997</v>
-      </c>
-      <c r="E86" s="4">
-        <v>595.572</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="22">
-        <v>105</v>
-      </c>
-      <c r="C87" s="18">
-        <v>7510833.7575000003</v>
-      </c>
-      <c r="D87" s="19">
-        <v>4693752.7050000001</v>
-      </c>
-      <c r="E87" s="4">
-        <v>595.572</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="22">
-        <v>106</v>
-      </c>
-      <c r="C88" s="18">
-        <v>7510832.0308999997</v>
-      </c>
-      <c r="D88" s="19">
-        <v>4693751.0022</v>
-      </c>
-      <c r="E88" s="4">
-        <v>595.572</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="22">
-        <v>107</v>
-      </c>
-      <c r="C89" s="18">
-        <v>7510828.3795999996</v>
-      </c>
-      <c r="D89" s="19">
-        <v>4693754.7046999997</v>
-      </c>
-      <c r="E89" s="4">
-        <v>595.572</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="25">
-        <v>108</v>
-      </c>
-      <c r="C90" s="26">
-        <v>7510830.1062000003</v>
-      </c>
-      <c r="D90" s="27">
-        <v>4693756.4073999999</v>
-      </c>
-      <c r="E90" s="14">
-        <v>595.572</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-    </row>
-    <row r="92" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="F102" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+    </row>
+    <row r="104" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="50" t="s">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="51"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="46" t="s">
+      <c r="F105" s="67"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I93" s="47"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="42"/>
-    </row>
-    <row r="94" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="53" t="s">
+      <c r="I105" s="63"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="58"/>
+    </row>
+    <row r="106" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="56">
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="72">
         <v>152</v>
       </c>
-      <c r="F94" s="57"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="44"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K97" s="1"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="60"/>
+    </row>
+    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K109" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="H83:H90"/>
-    <mergeCell ref="I83:I90"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I73:I76"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
+  <mergeCells count="35">
+    <mergeCell ref="G41:G62"/>
+    <mergeCell ref="H41:H62"/>
+    <mergeCell ref="I41:I62"/>
+    <mergeCell ref="J105:K106"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H105:I106"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="G65:G72"/>
+    <mergeCell ref="G85:G92"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="G75:G82"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="G95:G102"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="G21:G38"/>
@@ -3353,22 +3575,14 @@
     <mergeCell ref="G13:G18"/>
     <mergeCell ref="H13:H18"/>
     <mergeCell ref="I13:I18"/>
-    <mergeCell ref="J93:K94"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H93:I94"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="G53:G60"/>
-    <mergeCell ref="G73:G80"/>
-    <mergeCell ref="H73:H76"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="G63:G70"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="G83:G90"/>
+    <mergeCell ref="H95:H102"/>
+    <mergeCell ref="I95:I102"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$122</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
   <si>
     <t>Y</t>
   </si>
@@ -69,9 +69,6 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
-  </si>
-  <si>
     <t>Sqarim</t>
   </si>
   <si>
@@ -102,40 +99,7 @@
     <t>KATI2</t>
   </si>
   <si>
-    <t>KATI2-TERASAT</t>
-  </si>
-  <si>
-    <t>Gjthsej:</t>
-  </si>
-  <si>
     <t>Kati 2</t>
-  </si>
-  <si>
-    <t>Kati2</t>
-  </si>
-  <si>
-    <t>KATI3</t>
-  </si>
-  <si>
-    <t>KATI3-TERASAT</t>
-  </si>
-  <si>
-    <t>Kati 3</t>
-  </si>
-  <si>
-    <t>KATI4</t>
-  </si>
-  <si>
-    <t>KATI4-TERASAT</t>
-  </si>
-  <si>
-    <t>Kati 4</t>
-  </si>
-  <si>
-    <t>KATI-NK</t>
-  </si>
-  <si>
-    <t>Nënkulm</t>
   </si>
   <si>
     <t>PERDHESA</t>
@@ -149,11 +113,23 @@
   <si>
     <t>Bodrum</t>
   </si>
+  <si>
+    <t>KATI2-TERASA</t>
+  </si>
+  <si>
+    <t>Gjithsej</t>
+  </si>
+  <si>
+    <t>Liridon Sjdiu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -680,13 +656,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,18 +668,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,11 +690,59 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,65 +789,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,6 +1117,325 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400345" y="2581746"/>
+          <a:ext cx="3051603" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sistemi koordinat: KosovaRef01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451310</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>16719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4496634" y="207219"/>
+          <a:ext cx="1096781" cy="669082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975170" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216804" y="2321550"/>
+          <a:ext cx="2975170" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Komuna: Ferizaj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451359</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>43127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2953749" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5673300" y="2351539"/>
+          <a:ext cx="2953749" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Zona Kadastrale: Sojevë</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606643</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3298607" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211761" y="2588250"/>
+          <a:ext cx="3298607" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Numri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> i njësis kadastrale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: 01997-0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425364</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>90592</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3051603" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647305" y="2589504"/>
           <a:ext cx="3051603" cy="298800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1481,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B40:I62"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A88" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B108" sqref="B94:I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,115 +1794,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1622,23 +1916,23 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>1</v>
       </c>
       <c r="C13" s="18">
@@ -1651,20 +1945,20 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="55">
+        <v>23</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="65">
         <v>330.4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>3</v>
       </c>
       <c r="C14" s="18">
@@ -1677,14 +1971,14 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="55"/>
+        <v>23</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>4</v>
       </c>
       <c r="C15" s="18">
@@ -1697,14 +1991,14 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="55"/>
+        <v>23</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>12</v>
       </c>
       <c r="C16" s="18">
@@ -1717,14 +2011,14 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="55"/>
+        <v>23</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>56</v>
       </c>
       <c r="C17" s="18">
@@ -1737,31 +2031,31 @@
         <v>611.86699999999996</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="55"/>
+        <v>23</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>57</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>7517952.9117999999</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <v>4692681.6829000004</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <v>611.86699999999996</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="56"/>
+      <c r="F18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1775,16 +2069,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>7</v>
@@ -1804,15 +2098,15 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="31">
         <v>408.7</v>
       </c>
     </row>
@@ -1830,11 +2124,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -1850,11 +2144,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -1870,11 +2164,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -1890,11 +2184,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -1910,11 +2204,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -1930,11 +2224,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -1950,11 +2244,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -1970,11 +2264,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -1990,11 +2284,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
@@ -2010,11 +2304,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
@@ -2030,11 +2324,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -2050,11 +2344,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -2070,11 +2364,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -2090,11 +2384,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38">
+        <v>21</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32">
         <v>9.24</v>
       </c>
     </row>
@@ -2112,11 +2406,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
+        <v>21</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
@@ -2132,13 +2426,13 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="35">
+        <v>22</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="29">
         <v>2.65</v>
       </c>
     </row>
@@ -2156,11 +2450,11 @@
         <v>616.38300000000004</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="G38" s="33"/>
       <c r="H38" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="17">
         <f>I21+I37</f>
@@ -2186,23 +2480,23 @@
         <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>2</v>
       </c>
       <c r="C41" s="18">
@@ -2215,20 +2509,20 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="H41" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="37">
+      <c r="I41" s="31">
         <v>399.84</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>5</v>
       </c>
       <c r="C42" s="18">
@@ -2241,14 +2535,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>6</v>
       </c>
       <c r="C43" s="18">
@@ -2261,14 +2555,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>7</v>
       </c>
       <c r="C44" s="18">
@@ -2281,14 +2575,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>8</v>
       </c>
       <c r="C45" s="18">
@@ -2301,14 +2595,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>9</v>
       </c>
       <c r="C46" s="18">
@@ -2321,14 +2615,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <v>10</v>
       </c>
       <c r="C47" s="18">
@@ -2341,14 +2635,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="21">
+      <c r="B48" s="20">
         <v>11</v>
       </c>
       <c r="C48" s="18">
@@ -2361,14 +2655,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="21">
+      <c r="B49" s="20">
         <v>34</v>
       </c>
       <c r="C49" s="18">
@@ -2381,14 +2675,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="21">
+      <c r="B50" s="20">
         <v>35</v>
       </c>
       <c r="C50" s="18">
@@ -2401,14 +2695,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="21">
+      <c r="B51" s="20">
         <v>41</v>
       </c>
       <c r="C51" s="18">
@@ -2421,14 +2715,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>42</v>
       </c>
       <c r="C52" s="18">
@@ -2441,14 +2735,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>43</v>
       </c>
       <c r="C53" s="18">
@@ -2461,14 +2755,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>58</v>
       </c>
       <c r="C54" s="18">
@@ -2481,14 +2775,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="21">
+      <c r="B55" s="20">
         <v>59</v>
       </c>
       <c r="C55" s="18">
@@ -2501,14 +2795,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>60</v>
       </c>
       <c r="C56" s="18">
@@ -2521,14 +2815,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="21">
+      <c r="B57" s="20">
         <v>61</v>
       </c>
       <c r="C57" s="18">
@@ -2541,14 +2835,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="21">
+      <c r="B58" s="20">
         <v>62</v>
       </c>
       <c r="C58" s="18">
@@ -2561,14 +2855,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>63</v>
       </c>
       <c r="C59" s="18">
@@ -2581,14 +2875,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="21">
+      <c r="B60" s="20">
         <v>102</v>
       </c>
       <c r="C60" s="18">
@@ -2601,14 +2895,14 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>103</v>
       </c>
       <c r="C61" s="18">
@@ -2621,33 +2915,33 @@
         <v>618.84299999999996</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="23">
+      <c r="B62" s="21">
         <v>104</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="22">
         <v>7517941.3384999996</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="23">
         <v>4692675.6413000003</v>
       </c>
       <c r="E62" s="14">
         <v>618.84299999999996</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2656,211 +2950,96 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="21">
-        <v>7</v>
-      </c>
-      <c r="C65" s="18">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D65" s="19">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E65" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="40">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="21">
-        <v>12</v>
-      </c>
-      <c r="C66" s="18">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D66" s="19">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E66" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="75"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="40"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="21">
-        <v>13</v>
-      </c>
-      <c r="C67" s="18">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D67" s="19">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E67" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="75"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="40"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="21">
-        <v>19</v>
-      </c>
-      <c r="C68" s="18">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D68" s="19">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E68" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="75"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="40"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="21">
-        <v>8</v>
-      </c>
-      <c r="C69" s="18">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D69" s="19">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E69" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" s="75"/>
-      <c r="H69" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="40">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="21">
-        <v>100</v>
-      </c>
-      <c r="C70" s="18">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D70" s="19">
-        <v>4693757.18</v>
-      </c>
-      <c r="E70" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="75"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="40"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="21">
-        <v>101</v>
-      </c>
-      <c r="C71" s="18">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D71" s="19">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E71" s="4">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="75"/>
-      <c r="H71" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="22">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="23">
-        <v>102</v>
-      </c>
-      <c r="C72" s="24">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D72" s="25">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E72" s="14">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
       <c r="G72" s="76"/>
-      <c r="H72" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="27">
-        <f>SUM(I65:I71)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2868,435 +3047,224 @@
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="21">
-        <v>7</v>
-      </c>
-      <c r="C75" s="18">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D75" s="19">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E75" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="75" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I75" s="40">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="21">
-        <v>12</v>
-      </c>
-      <c r="C76" s="18">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D76" s="19">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E76" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="75"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="40"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="21">
-        <v>13</v>
-      </c>
-      <c r="C77" s="18">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D77" s="19">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E77" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="75"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="40"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="21">
-        <v>19</v>
-      </c>
-      <c r="C78" s="18">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D78" s="19">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E78" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="75"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="40"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="21">
-        <v>8</v>
-      </c>
-      <c r="C79" s="18">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D79" s="19">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E79" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="75"/>
-      <c r="H79" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="40">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="21">
-        <v>100</v>
-      </c>
-      <c r="C80" s="18">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D80" s="19">
-        <v>4693757.18</v>
-      </c>
-      <c r="E80" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="75"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="40"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="35"/>
+    </row>
+    <row r="80" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="49">
+        <v>140</v>
+      </c>
+      <c r="F80" s="50"/>
+      <c r="G80" s="51"/>
       <c r="H80" s="41"/>
-      <c r="I80" s="40"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="21">
-        <v>101</v>
-      </c>
-      <c r="C81" s="18">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D81" s="19">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E81" s="4">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="75"/>
-      <c r="H81" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="29">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="23">
-        <v>102</v>
-      </c>
-      <c r="C82" s="24">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D82" s="25">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E82" s="14">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="76"/>
-      <c r="H82" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" s="27">
-        <f>SUM(I75:I81)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="21">
-        <v>7</v>
-      </c>
-      <c r="C85" s="18">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D85" s="19">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E85" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85" s="40">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="21">
-        <v>12</v>
-      </c>
-      <c r="C86" s="18">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D86" s="19">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E86" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" s="75"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="40"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="21">
-        <v>13</v>
-      </c>
-      <c r="C87" s="18">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D87" s="19">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E87" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="75"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="40"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="21">
-        <v>19</v>
-      </c>
-      <c r="C88" s="18">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D88" s="19">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E88" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" s="75"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="40"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="21">
-        <v>8</v>
-      </c>
-      <c r="C89" s="18">
-        <v>7510834.5362</v>
-      </c>
-      <c r="D89" s="19">
-        <v>4693744.8603999997</v>
-      </c>
-      <c r="E89" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" s="75"/>
-      <c r="H89" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" s="40">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="21">
-        <v>100</v>
-      </c>
-      <c r="C90" s="18">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D90" s="19">
-        <v>4693757.18</v>
-      </c>
-      <c r="E90" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" s="75"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="40"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="21">
-        <v>101</v>
-      </c>
-      <c r="C91" s="18">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="D91" s="19">
-        <v>4693767.4611</v>
-      </c>
-      <c r="E91" s="4">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" s="75"/>
-      <c r="H91" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="31">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="23">
-        <v>102</v>
-      </c>
-      <c r="C92" s="24">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D92" s="25">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E92" s="14">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" s="76"/>
-      <c r="H92" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I92" s="27">
-        <f>SUM(I85:I91)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="42"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="37"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
+    </row>
+    <row r="83" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="52"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+    </row>
+    <row r="87" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C89" s="53"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="55"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="56"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="58"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="59"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="61"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>5</v>
       </c>
@@ -3307,266 +3275,573 @@
         <v>1</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="21">
-        <v>7</v>
-      </c>
-      <c r="C95" s="18">
-        <v>7510825.8598999996</v>
-      </c>
-      <c r="D95" s="19">
-        <v>4693760.7132999999</v>
-      </c>
-      <c r="E95" s="4">
-        <v>595.572</v>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="20">
+        <v>21</v>
+      </c>
+      <c r="C95" s="67">
+        <v>7517928.4314999999</v>
+      </c>
+      <c r="D95" s="68">
+        <v>4692673.0663999999</v>
+      </c>
+      <c r="E95" s="68">
+        <v>622.86300000000006</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H95" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I95" s="37">
-        <v>136.41</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="21">
-        <v>12</v>
-      </c>
-      <c r="C96" s="18">
-        <v>7510843.0706000002</v>
-      </c>
-      <c r="D96" s="19">
-        <v>4693753.4441</v>
-      </c>
-      <c r="E96" s="4">
-        <v>595.572</v>
+        <v>19</v>
+      </c>
+      <c r="G95" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="73">
+        <v>377.81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="20">
+        <v>22</v>
+      </c>
+      <c r="C96" s="67">
+        <v>7517936.0539999995</v>
+      </c>
+      <c r="D96" s="68">
+        <v>4692675.5999999996</v>
+      </c>
+      <c r="E96" s="68">
+        <v>622.86300000000006</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="21">
-        <v>13</v>
-      </c>
-      <c r="C97" s="18">
-        <v>7510838.0334000001</v>
-      </c>
-      <c r="D97" s="19">
-        <v>4693748.3690999998</v>
-      </c>
-      <c r="E97" s="4">
-        <v>595.572</v>
+        <v>19</v>
+      </c>
+      <c r="G96" s="69"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="20">
+        <v>23</v>
+      </c>
+      <c r="C97" s="67">
+        <v>7517936.5029999996</v>
+      </c>
+      <c r="D97" s="68">
+        <v>4692674.3310000002</v>
+      </c>
+      <c r="E97" s="68">
+        <v>622.86300000000006</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="21">
         <v>19</v>
       </c>
-      <c r="C98" s="18">
-        <v>7510830.9287</v>
-      </c>
-      <c r="D98" s="19">
-        <v>4693765.7561999997</v>
-      </c>
-      <c r="E98" s="4">
-        <v>595.572</v>
+      <c r="G97" s="69"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="20">
+        <v>24</v>
+      </c>
+      <c r="C98" s="67">
+        <v>7517941</v>
+      </c>
+      <c r="D98" s="68">
+        <v>4692675.5310000004</v>
+      </c>
+      <c r="E98" s="68">
+        <v>622.86300000000006</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="21">
-        <v>105</v>
-      </c>
-      <c r="C99" s="18">
-        <v>7510833.7575000003</v>
-      </c>
-      <c r="D99" s="19">
-        <v>4693752.7050000001</v>
-      </c>
-      <c r="E99" s="4">
-        <v>595.572</v>
+        <v>19</v>
+      </c>
+      <c r="G98" s="69"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="20">
+        <v>25</v>
+      </c>
+      <c r="C99" s="67">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="D99" s="68">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="E99" s="68">
+        <v>622.86300000000006</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="21">
+        <v>19</v>
+      </c>
+      <c r="G99" s="69"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="20">
+        <v>44</v>
+      </c>
+      <c r="C100" s="67">
+        <v>7517945.9960000003</v>
+      </c>
+      <c r="D100" s="68">
+        <v>4692677.4869999997</v>
+      </c>
+      <c r="E100" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="69"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="20">
+        <v>45</v>
+      </c>
+      <c r="C101" s="67">
+        <v>7517945.5499999998</v>
+      </c>
+      <c r="D101" s="68">
+        <v>4692678.7819999997</v>
+      </c>
+      <c r="E101" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="69"/>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="20">
+        <v>46</v>
+      </c>
+      <c r="C102" s="67">
+        <v>7517953.0659999996</v>
+      </c>
+      <c r="D102" s="68">
+        <v>4692681.2970000003</v>
+      </c>
+      <c r="E102" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="69"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="20">
+        <v>47</v>
+      </c>
+      <c r="C103" s="67">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="D103" s="68">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="E103" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="69"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="20">
+        <v>48</v>
+      </c>
+      <c r="C104" s="67">
+        <v>7517951.9978</v>
+      </c>
+      <c r="D104" s="68">
+        <v>4692687.1791000003</v>
+      </c>
+      <c r="E104" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="69"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="20">
+        <v>49</v>
+      </c>
+      <c r="C105" s="67">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="D105" s="68">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="E105" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="69"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="20">
+        <v>50</v>
+      </c>
+      <c r="C106" s="67">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="D106" s="68">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="E106" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="69"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="20">
+        <v>51</v>
+      </c>
+      <c r="C107" s="67">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="D107" s="68">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="E107" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="69"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="20">
         <v>106</v>
       </c>
-      <c r="C100" s="18">
-        <v>7510832.0308999997</v>
-      </c>
-      <c r="D100" s="19">
-        <v>4693751.0022</v>
-      </c>
-      <c r="E100" s="4">
-        <v>595.572</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="21">
-        <v>107</v>
-      </c>
-      <c r="C101" s="18">
-        <v>7510828.3795999996</v>
-      </c>
-      <c r="D101" s="19">
-        <v>4693754.7046999997</v>
-      </c>
-      <c r="E101" s="4">
-        <v>595.572</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="23">
-        <v>108</v>
-      </c>
-      <c r="C102" s="24">
-        <v>7510830.1062000003</v>
-      </c>
-      <c r="D102" s="25">
-        <v>4693756.4073999999</v>
-      </c>
-      <c r="E102" s="14">
-        <v>595.572</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-    </row>
-    <row r="104" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="C108" s="67">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="D108" s="68">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="E108" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="69"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="20">
+        <v>26</v>
+      </c>
+      <c r="C109" s="67">
+        <v>7517929.8310000002</v>
+      </c>
+      <c r="D109" s="68">
+        <v>4692673.5029999996</v>
+      </c>
+      <c r="E109" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="69"/>
+      <c r="H109" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="73">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="20">
+        <v>27</v>
+      </c>
+      <c r="C110" s="67">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="D110" s="68">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="E110" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="69"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="20">
+        <v>28</v>
+      </c>
+      <c r="C111" s="67">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="D111" s="68">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="E111" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="69"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="20">
+        <v>29</v>
+      </c>
+      <c r="C112" s="67">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="D112" s="68">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="E112" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="69"/>
+      <c r="H112" s="75"/>
+      <c r="I112" s="75"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="20">
+        <v>30</v>
+      </c>
+      <c r="C113" s="67">
+        <v>7517936.4819999998</v>
+      </c>
+      <c r="D113" s="68">
+        <v>4692674.3839999996</v>
+      </c>
+      <c r="E113" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="69"/>
+      <c r="H113" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="73">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="20">
+        <v>52</v>
+      </c>
+      <c r="C114" s="67">
+        <v>7517945.9759999998</v>
+      </c>
+      <c r="D114" s="68">
+        <v>4692677.5640000002</v>
+      </c>
+      <c r="E114" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="69"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="20">
+        <v>53</v>
+      </c>
+      <c r="C115" s="67">
+        <v>7517950.3880000003</v>
+      </c>
+      <c r="D115" s="68">
+        <v>4692679.0279999999</v>
+      </c>
+      <c r="E115" s="68">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="69"/>
+      <c r="H115" s="75"/>
+      <c r="I115" s="75"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="21">
+        <v>54</v>
+      </c>
+      <c r="C116" s="70">
+        <v>7517949.9369999999</v>
+      </c>
+      <c r="D116" s="71">
+        <v>4692680.25</v>
+      </c>
+      <c r="E116" s="71">
+        <v>622.86300000000006</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="72"/>
+      <c r="H116" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="25">
+        <f>SUM(I95:I115)</f>
+        <v>391.74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D119" s="5"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+    </row>
+    <row r="120" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="67"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="62" t="s">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" s="44"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I105" s="63"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="58"/>
-    </row>
-    <row r="106" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="69" t="s">
+      <c r="I121" s="40"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="35"/>
+    </row>
+    <row r="122" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="72">
-        <v>152</v>
-      </c>
-      <c r="F106" s="73"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="65"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="60"/>
-    </row>
-    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K109" s="1"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="49">
+        <v>140</v>
+      </c>
+      <c r="F122" s="50"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="37"/>
+    </row>
+    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K125" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="G41:G62"/>
-    <mergeCell ref="H41:H62"/>
-    <mergeCell ref="I41:I62"/>
-    <mergeCell ref="J105:K106"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H105:I106"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="G65:G72"/>
-    <mergeCell ref="G85:G92"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="H65:H68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="G75:G82"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="G95:G102"/>
+  <mergeCells count="32">
+    <mergeCell ref="G95:G116"/>
+    <mergeCell ref="H95:H108"/>
+    <mergeCell ref="I95:I108"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="A82:K83"/>
+    <mergeCell ref="A84:K87"/>
+    <mergeCell ref="C89:J91"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="J79:K80"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:G80"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="G21:G38"/>
@@ -3575,14 +3850,15 @@
     <mergeCell ref="G13:G18"/>
     <mergeCell ref="H13:H18"/>
     <mergeCell ref="I13:I18"/>
-    <mergeCell ref="H95:H102"/>
-    <mergeCell ref="I95:I102"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="G41:G62"/>
+    <mergeCell ref="H41:H62"/>
+    <mergeCell ref="I41:I62"/>
+    <mergeCell ref="J121:K122"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H121:I122"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="E122:G122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-Dior.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$148</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="31">
   <si>
     <t>Y</t>
   </si>
@@ -122,6 +122,15 @@
   <si>
     <t>Liridon Sjdiu</t>
   </si>
+  <si>
+    <t>KATI3</t>
+  </si>
+  <si>
+    <t>KATI3-TERASA</t>
+  </si>
+  <si>
+    <t>Kati 3</t>
+  </si>
 </sst>
 </file>
 
@@ -605,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -681,121 +690,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,6 +701,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -812,11 +722,117 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A88" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B108" sqref="B94:I116"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A102" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C129" sqref="B118:I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,115 +1810,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,13 +1963,13 @@
       <c r="F13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="77">
         <v>330.4</v>
       </c>
     </row>
@@ -1973,9 +1989,9 @@
       <c r="F14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="65"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
@@ -1993,9 +2009,9 @@
       <c r="F15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="65"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="77"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
@@ -2013,9 +2029,9 @@
       <c r="F16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="65"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
@@ -2033,9 +2049,9 @@
       <c r="F17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="65"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
@@ -2053,9 +2069,9 @@
       <c r="F18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="66"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -2100,13 +2116,13 @@
       <c r="F21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="71">
         <v>408.7</v>
       </c>
     </row>
@@ -2126,9 +2142,9 @@
       <c r="F22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -2146,9 +2162,9 @@
       <c r="F23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -2166,9 +2182,9 @@
       <c r="F24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -2186,9 +2202,9 @@
       <c r="F25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -2206,9 +2222,9 @@
       <c r="F26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -2226,9 +2242,9 @@
       <c r="F27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -2246,9 +2262,9 @@
       <c r="F28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -2266,9 +2282,9 @@
       <c r="F29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -2286,9 +2302,9 @@
       <c r="F30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
@@ -2306,9 +2322,9 @@
       <c r="F31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
@@ -2326,9 +2342,9 @@
       <c r="F32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -2346,9 +2362,9 @@
       <c r="F33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -2366,9 +2382,9 @@
       <c r="F34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -2386,9 +2402,9 @@
       <c r="F35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32">
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72">
         <v>9.24</v>
       </c>
     </row>
@@ -2408,9 +2424,9 @@
       <c r="F36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
@@ -2428,7 +2444,7 @@
       <c r="F37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="32"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="28" t="s">
         <v>13</v>
       </c>
@@ -2452,7 +2468,7 @@
       <c r="F38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="16" t="s">
         <v>14</v>
       </c>
@@ -2511,13 +2527,13 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="71">
         <v>399.84</v>
       </c>
     </row>
@@ -2537,9 +2553,9 @@
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="20">
@@ -2557,9 +2573,9 @@
       <c r="F43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="20">
@@ -2577,9 +2593,9 @@
       <c r="F44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20">
@@ -2597,9 +2613,9 @@
       <c r="F45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="20">
@@ -2617,9 +2633,9 @@
       <c r="F46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="20">
@@ -2637,9 +2653,9 @@
       <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="20">
@@ -2657,9 +2673,9 @@
       <c r="F48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="20">
@@ -2677,9 +2693,9 @@
       <c r="F49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="20">
@@ -2697,9 +2713,9 @@
       <c r="F50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="20">
@@ -2717,9 +2733,9 @@
       <c r="F51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="20">
@@ -2737,9 +2753,9 @@
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="20">
@@ -2757,9 +2773,9 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="20">
@@ -2777,9 +2793,9 @@
       <c r="F54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="20">
@@ -2797,9 +2813,9 @@
       <c r="F55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="20">
@@ -2817,9 +2833,9 @@
       <c r="F56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="20">
@@ -2837,9 +2853,9 @@
       <c r="F57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="20">
@@ -2857,9 +2873,9 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="20">
@@ -2877,9 +2893,9 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="20">
@@ -2897,9 +2913,9 @@
       <c r="F60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="20">
@@ -2917,9 +2933,9 @@
       <c r="F61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="21">
@@ -2937,9 +2953,9 @@
       <c r="F62" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" s="5"/>
@@ -2965,9 +2981,9 @@
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="26"/>
@@ -2975,9 +2991,9 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="26"/>
@@ -2985,9 +3001,9 @@
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" s="26"/>
@@ -2995,9 +3011,9 @@
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" s="26"/>
@@ -3005,9 +3021,9 @@
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="26"/>
@@ -3015,9 +3031,9 @@
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="26"/>
@@ -3025,7 +3041,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="76"/>
+      <c r="G71" s="36"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
@@ -3035,7 +3051,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="76"/>
+      <c r="G72" s="36"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
     </row>
@@ -3094,34 +3110,34 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="39" t="s">
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="40"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="35"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="62"/>
     </row>
     <row r="80" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="49">
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="68">
         <v>140</v>
       </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="37"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" s="27"/>
@@ -3134,115 +3150,115 @@
       <c r="I81" s="27"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
     </row>
     <row r="83" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
     </row>
     <row r="87" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="53"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="55"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="47"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="56"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="58"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="50"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="59"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="61"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="53"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="27"/>
@@ -3294,25 +3310,25 @@
       <c r="B95" s="20">
         <v>21</v>
       </c>
-      <c r="C95" s="67">
+      <c r="C95" s="31">
         <v>7517928.4314999999</v>
       </c>
-      <c r="D95" s="68">
+      <c r="D95" s="32">
         <v>4692673.0663999999</v>
       </c>
-      <c r="E95" s="68">
+      <c r="E95" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G95" s="69" t="s">
+      <c r="G95" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="73" t="s">
+      <c r="H95" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I95" s="73">
+      <c r="I95" s="40">
         <v>377.81</v>
       </c>
     </row>
@@ -3320,283 +3336,283 @@
       <c r="B96" s="20">
         <v>22</v>
       </c>
-      <c r="C96" s="67">
+      <c r="C96" s="31">
         <v>7517936.0539999995</v>
       </c>
-      <c r="D96" s="68">
+      <c r="D96" s="32">
         <v>4692675.5999999996</v>
       </c>
-      <c r="E96" s="68">
+      <c r="E96" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="69"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="20">
         <v>23</v>
       </c>
-      <c r="C97" s="67">
+      <c r="C97" s="31">
         <v>7517936.5029999996</v>
       </c>
-      <c r="D97" s="68">
+      <c r="D97" s="32">
         <v>4692674.3310000002</v>
       </c>
-      <c r="E97" s="68">
+      <c r="E97" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="69"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="20">
         <v>24</v>
       </c>
-      <c r="C98" s="67">
+      <c r="C98" s="31">
         <v>7517941</v>
       </c>
-      <c r="D98" s="68">
+      <c r="D98" s="32">
         <v>4692675.5310000004</v>
       </c>
-      <c r="E98" s="68">
+      <c r="E98" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="20">
         <v>25</v>
       </c>
-      <c r="C99" s="67">
+      <c r="C99" s="31">
         <v>7517924.0990000004</v>
       </c>
-      <c r="D99" s="68">
+      <c r="D99" s="32">
         <v>4692685.9060000004</v>
       </c>
-      <c r="E99" s="68">
+      <c r="E99" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="69"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="20">
         <v>44</v>
       </c>
-      <c r="C100" s="67">
+      <c r="C100" s="31">
         <v>7517945.9960000003</v>
       </c>
-      <c r="D100" s="68">
+      <c r="D100" s="32">
         <v>4692677.4869999997</v>
       </c>
-      <c r="E100" s="68">
+      <c r="E100" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="69"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="20">
         <v>45</v>
       </c>
-      <c r="C101" s="67">
+      <c r="C101" s="31">
         <v>7517945.5499999998</v>
       </c>
-      <c r="D101" s="68">
+      <c r="D101" s="32">
         <v>4692678.7819999997</v>
       </c>
-      <c r="E101" s="68">
+      <c r="E101" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G101" s="69"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="20">
         <v>46</v>
       </c>
-      <c r="C102" s="67">
+      <c r="C102" s="31">
         <v>7517953.0659999996</v>
       </c>
-      <c r="D102" s="68">
+      <c r="D102" s="32">
         <v>4692681.2970000003</v>
       </c>
-      <c r="E102" s="68">
+      <c r="E102" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G102" s="69"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="20">
         <v>47</v>
       </c>
-      <c r="C103" s="67">
+      <c r="C103" s="31">
         <v>7517951.3300000001</v>
       </c>
-      <c r="D103" s="68">
+      <c r="D103" s="32">
         <v>4692686.5060000001</v>
       </c>
-      <c r="E103" s="68">
+      <c r="E103" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G103" s="69"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="20">
         <v>48</v>
       </c>
-      <c r="C104" s="67">
+      <c r="C104" s="31">
         <v>7517951.9978</v>
       </c>
-      <c r="D104" s="68">
+      <c r="D104" s="32">
         <v>4692687.1791000003</v>
       </c>
-      <c r="E104" s="68">
+      <c r="E104" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G104" s="69"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="20">
         <v>49</v>
       </c>
-      <c r="C105" s="67">
+      <c r="C105" s="31">
         <v>7517952.0760000004</v>
       </c>
-      <c r="D105" s="68">
+      <c r="D105" s="32">
         <v>4692688.1239999998</v>
       </c>
-      <c r="E105" s="68">
+      <c r="E105" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="69"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="20">
         <v>50</v>
       </c>
-      <c r="C106" s="67">
+      <c r="C106" s="31">
         <v>7517949.5559999999</v>
       </c>
-      <c r="D106" s="68">
+      <c r="D106" s="32">
         <v>4692694.1169999996</v>
       </c>
-      <c r="E106" s="68">
+      <c r="E106" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="69"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="20">
         <v>51</v>
       </c>
-      <c r="C107" s="67">
+      <c r="C107" s="31">
         <v>7517950.1849999996</v>
       </c>
-      <c r="D107" s="68">
+      <c r="D107" s="32">
         <v>4692693.4919999996</v>
       </c>
-      <c r="E107" s="68">
+      <c r="E107" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="69"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="20">
         <v>106</v>
       </c>
-      <c r="C108" s="67">
+      <c r="C108" s="31">
         <v>7517948.5300000003</v>
       </c>
-      <c r="D108" s="68">
+      <c r="D108" s="32">
         <v>4692694.1579999998</v>
       </c>
-      <c r="E108" s="68">
+      <c r="E108" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G108" s="69"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="75"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="20">
         <v>26</v>
       </c>
-      <c r="C109" s="67">
+      <c r="C109" s="31">
         <v>7517929.8310000002</v>
       </c>
-      <c r="D109" s="68">
+      <c r="D109" s="32">
         <v>4692673.5029999996</v>
       </c>
-      <c r="E109" s="68">
+      <c r="E109" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G109" s="69"/>
-      <c r="H109" s="73" t="s">
+      <c r="G109" s="38"/>
+      <c r="H109" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I109" s="73">
+      <c r="I109" s="40">
         <v>7.92</v>
       </c>
     </row>
@@ -3604,143 +3620,143 @@
       <c r="B110" s="20">
         <v>27</v>
       </c>
-      <c r="C110" s="67">
+      <c r="C110" s="31">
         <v>7517930.2989999996</v>
       </c>
-      <c r="D110" s="68">
+      <c r="D110" s="32">
         <v>4692672.9689999996</v>
       </c>
-      <c r="E110" s="68">
+      <c r="E110" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G110" s="69"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="20">
         <v>28</v>
       </c>
-      <c r="C111" s="67">
+      <c r="C111" s="31">
         <v>7517931.2220000001</v>
       </c>
-      <c r="D111" s="68">
+      <c r="D111" s="32">
         <v>4692672.7319999998</v>
       </c>
-      <c r="E111" s="68">
+      <c r="E111" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="20">
         <v>29</v>
       </c>
-      <c r="C112" s="67">
+      <c r="C112" s="31">
         <v>7517931.6050000004</v>
       </c>
-      <c r="D112" s="68">
+      <c r="D112" s="32">
         <v>4692672.7970000003</v>
       </c>
-      <c r="E112" s="68">
+      <c r="E112" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G112" s="69"/>
-      <c r="H112" s="75"/>
-      <c r="I112" s="75"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G112" s="38"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="20">
         <v>30</v>
       </c>
-      <c r="C113" s="67">
+      <c r="C113" s="31">
         <v>7517936.4819999998</v>
       </c>
-      <c r="D113" s="68">
+      <c r="D113" s="32">
         <v>4692674.3839999996</v>
       </c>
-      <c r="E113" s="68">
+      <c r="E113" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G113" s="69"/>
-      <c r="H113" s="73" t="s">
+      <c r="G113" s="38"/>
+      <c r="H113" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I113" s="73">
+      <c r="I113" s="40">
         <v>6.01</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="20">
         <v>52</v>
       </c>
-      <c r="C114" s="67">
+      <c r="C114" s="31">
         <v>7517945.9759999998</v>
       </c>
-      <c r="D114" s="68">
+      <c r="D114" s="32">
         <v>4692677.5640000002</v>
       </c>
-      <c r="E114" s="68">
+      <c r="E114" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G114" s="69"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G114" s="38"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="20">
         <v>53</v>
       </c>
-      <c r="C115" s="67">
+      <c r="C115" s="31">
         <v>7517950.3880000003</v>
       </c>
-      <c r="D115" s="68">
+      <c r="D115" s="32">
         <v>4692679.0279999999</v>
       </c>
-      <c r="E115" s="68">
+      <c r="E115" s="32">
         <v>622.86300000000006</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G115" s="69"/>
-      <c r="H115" s="75"/>
-      <c r="I115" s="75"/>
-    </row>
-    <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="38"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+    </row>
+    <row r="116" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="21">
         <v>54</v>
       </c>
-      <c r="C116" s="70">
+      <c r="C116" s="33">
         <v>7517949.9369999999</v>
       </c>
-      <c r="D116" s="71">
+      <c r="D116" s="34">
         <v>4692680.25</v>
       </c>
-      <c r="E116" s="71">
+      <c r="E116" s="34">
         <v>622.86300000000006</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G116" s="72"/>
+      <c r="G116" s="39"/>
       <c r="H116" s="24" t="s">
         <v>26</v>
       </c>
@@ -3749,91 +3765,623 @@
         <v>391.74</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
+    <row r="117" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="26"/>
+      <c r="C117" s="79"/>
+      <c r="D117" s="80"/>
+      <c r="E117" s="80"/>
+      <c r="F117" s="6"/>
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D119" s="5"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-    </row>
-    <row r="120" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="20">
+        <v>21</v>
+      </c>
+      <c r="C119" s="31">
+        <v>7517928.4314999999</v>
+      </c>
+      <c r="D119" s="32">
+        <v>4692673.0663999999</v>
+      </c>
+      <c r="E119" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" s="40">
+        <v>377.81</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="20">
+        <v>22</v>
+      </c>
+      <c r="C120" s="31">
+        <v>7517936.0539999995</v>
+      </c>
+      <c r="D120" s="32">
+        <v>4692675.5999999996</v>
+      </c>
+      <c r="E120" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="38"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="20">
+        <v>23</v>
+      </c>
+      <c r="C121" s="31">
+        <v>7517936.5029999996</v>
+      </c>
+      <c r="D121" s="32">
+        <v>4692674.3310000002</v>
+      </c>
+      <c r="E121" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="38"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="20">
+        <v>24</v>
+      </c>
+      <c r="C122" s="31">
+        <v>7517941</v>
+      </c>
+      <c r="D122" s="32">
+        <v>4692675.5310000004</v>
+      </c>
+      <c r="E122" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="38"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="20">
+        <v>25</v>
+      </c>
+      <c r="C123" s="31">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="D123" s="32">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="E123" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="38"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="20">
+        <v>44</v>
+      </c>
+      <c r="C124" s="31">
+        <v>7517945.9960000003</v>
+      </c>
+      <c r="D124" s="32">
+        <v>4692677.4869999997</v>
+      </c>
+      <c r="E124" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="38"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="20">
+        <v>45</v>
+      </c>
+      <c r="C125" s="31">
+        <v>7517945.5499999998</v>
+      </c>
+      <c r="D125" s="32">
+        <v>4692678.7819999997</v>
+      </c>
+      <c r="E125" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" s="38"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="20">
+        <v>46</v>
+      </c>
+      <c r="C126" s="31">
+        <v>7517953.0659999996</v>
+      </c>
+      <c r="D126" s="32">
+        <v>4692681.2970000003</v>
+      </c>
+      <c r="E126" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="38"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="20">
+        <v>47</v>
+      </c>
+      <c r="C127" s="31">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="D127" s="32">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="E127" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" s="38"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="20">
+        <v>48</v>
+      </c>
+      <c r="C128" s="31">
+        <v>7517951.9978</v>
+      </c>
+      <c r="D128" s="32">
+        <v>4692687.1791000003</v>
+      </c>
+      <c r="E128" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="38"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="20">
+        <v>49</v>
+      </c>
+      <c r="C129" s="31">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="D129" s="32">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="E129" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="38"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="20">
+        <v>50</v>
+      </c>
+      <c r="C130" s="31">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="D130" s="32">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="E130" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="38"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="20">
+        <v>51</v>
+      </c>
+      <c r="C131" s="31">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="D131" s="32">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="E131" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="38"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="20">
+        <v>106</v>
+      </c>
+      <c r="C132" s="31">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="D132" s="32">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="E132" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="38"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="20">
+        <v>26</v>
+      </c>
+      <c r="C133" s="31">
+        <v>7517929.8310000002</v>
+      </c>
+      <c r="D133" s="32">
+        <v>4692673.5029999996</v>
+      </c>
+      <c r="E133" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="38"/>
+      <c r="H133" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="40">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="20">
+        <v>27</v>
+      </c>
+      <c r="C134" s="31">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="D134" s="32">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="E134" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="38"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="20">
+        <v>28</v>
+      </c>
+      <c r="C135" s="31">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="D135" s="32">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="E135" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="38"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="20">
+        <v>29</v>
+      </c>
+      <c r="C136" s="31">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="D136" s="32">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="E136" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" s="38"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="20">
+        <v>30</v>
+      </c>
+      <c r="C137" s="31">
+        <v>7517936.4819999998</v>
+      </c>
+      <c r="D137" s="32">
+        <v>4692674.3839999996</v>
+      </c>
+      <c r="E137" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" s="38"/>
+      <c r="H137" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="40">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="20">
+        <v>52</v>
+      </c>
+      <c r="C138" s="31">
+        <v>7517945.9759999998</v>
+      </c>
+      <c r="D138" s="32">
+        <v>4692677.5640000002</v>
+      </c>
+      <c r="E138" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" s="38"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="20">
+        <v>53</v>
+      </c>
+      <c r="C139" s="31">
+        <v>7517950.3880000003</v>
+      </c>
+      <c r="D139" s="32">
+        <v>4692679.0279999999</v>
+      </c>
+      <c r="E139" s="32">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="38"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+    </row>
+    <row r="140" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="21">
+        <v>54</v>
+      </c>
+      <c r="C140" s="33">
+        <v>7517949.9369999999</v>
+      </c>
+      <c r="D140" s="34">
+        <v>4692680.25</v>
+      </c>
+      <c r="E140" s="34">
+        <v>625.72400000000005</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" s="39"/>
+      <c r="H140" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" s="25">
+        <f>SUM(I119:I139)</f>
+        <v>391.74</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="26"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="26"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D145" s="5"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+    </row>
+    <row r="146" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="43" t="s">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="44"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="39" t="s">
+      <c r="F147" s="55"/>
+      <c r="G147" s="56"/>
+      <c r="H147" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I121" s="40"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="35"/>
-    </row>
-    <row r="122" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="46" t="s">
+      <c r="I147" s="58"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="62"/>
+    </row>
+    <row r="148" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="49">
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="68">
         <v>140</v>
       </c>
-      <c r="F122" s="50"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="37"/>
-    </row>
-    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K125" s="1"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="60"/>
+      <c r="J148" s="63"/>
+      <c r="K148" s="64"/>
+    </row>
+    <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K151" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G95:G116"/>
-    <mergeCell ref="H95:H108"/>
-    <mergeCell ref="I95:I108"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
+  <mergeCells count="39">
+    <mergeCell ref="G41:G62"/>
+    <mergeCell ref="H41:H62"/>
+    <mergeCell ref="I41:I62"/>
+    <mergeCell ref="J147:K148"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H147:I148"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="G119:G140"/>
+    <mergeCell ref="H119:H132"/>
+    <mergeCell ref="I119:I132"/>
+    <mergeCell ref="H133:H136"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="H137:H139"/>
+    <mergeCell ref="I137:I139"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="G21:G38"/>
+    <mergeCell ref="H21:H36"/>
+    <mergeCell ref="I21:I36"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
     <mergeCell ref="A82:K83"/>
     <mergeCell ref="A84:K87"/>
     <mergeCell ref="C89:J91"/>
@@ -3842,23 +4390,13 @@
     <mergeCell ref="J79:K80"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="E80:G80"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="G21:G38"/>
-    <mergeCell ref="H21:H36"/>
-    <mergeCell ref="I21:I36"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="G41:G62"/>
-    <mergeCell ref="H41:H62"/>
-    <mergeCell ref="I41:I62"/>
-    <mergeCell ref="J121:K122"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H121:I122"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="G95:G116"/>
+    <mergeCell ref="H95:H108"/>
+    <mergeCell ref="I95:I108"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
